--- a/MasterDB/masterdb.xlsx
+++ b/MasterDB/masterdb.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ghayes/Desktop/Slab2.0/Slab2/MasterDB/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khaynie/Src/slab2/MasterDB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59C1ADC-FE7F-FE4F-8D1A-C6340943B2D2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC46BAA9-D2FB-B24C-85D7-12182DBE1EEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2200" windowWidth="51200" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="685">
   <si>
     <t>name</t>
   </si>
@@ -2166,6 +2166,15 @@
   </si>
   <si>
     <t>Seismic imaging east of the Rocky Moutains with USArray</t>
+  </si>
+  <si>
+    <t>ALL_EQ_121819.csv</t>
+  </si>
+  <si>
+    <t>khaynie@usgs.gov</t>
+  </si>
+  <si>
+    <t>associated PDE query (current as of 12/18/19) and the gCMT catalog (current as of 9/02/19)</t>
   </si>
 </sst>
 </file>
@@ -2238,7 +2247,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2285,6 +2294,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFDDE0"/>
         <bgColor rgb="FFFFDDE0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCDD0F7"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2439,7 +2454,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2545,46 +2560,56 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2592,6 +2617,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCDD0F7"/>
+      <color rgb="FFB24CFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2903,10 +2934,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="D108" sqref="D108"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -2965,30 +2996,28 @@
       <c r="Z1" s="3"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>7</v>
+      <c r="A2" s="55" t="s">
+        <v>682</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4">
-        <v>2017</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="55">
+        <v>2019</v>
+      </c>
+      <c r="D2" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
+      <c r="E2" s="56" t="s">
+        <v>683</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>12</v>
-      </c>
+        <v>684</v>
+      </c>
+      <c r="H2" s="53"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -3009,29 +3038,29 @@
       <c r="Z2" s="3"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="40" t="s">
-        <v>20</v>
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2017</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -3053,16 +3082,30 @@
       <c r="Z3" s="3"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
+      <c r="A4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="48" t="s">
+        <v>20</v>
+      </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -3084,15 +3127,15 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="A5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
+        <v>21</v>
+      </c>
+      <c r="B5" s="46"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -3114,15 +3157,15 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="A6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
+        <v>22</v>
+      </c>
+      <c r="B6" s="46"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -3144,15 +3187,15 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1">
       <c r="A7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
+        <v>23</v>
+      </c>
+      <c r="B7" s="46"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -3174,15 +3217,15 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1">
       <c r="A8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
+        <v>24</v>
+      </c>
+      <c r="B8" s="46"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -3204,15 +3247,15 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1">
       <c r="A9" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
+        <v>25</v>
+      </c>
+      <c r="B9" s="46"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -3234,15 +3277,15 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="A10" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
+        <v>26</v>
+      </c>
+      <c r="B10" s="46"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -3264,15 +3307,15 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
       <c r="A11" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
+        <v>27</v>
+      </c>
+      <c r="B11" s="46"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -3294,15 +3337,15 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
+        <v>28</v>
+      </c>
+      <c r="B12" s="46"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -3324,15 +3367,15 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
       <c r="A13" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
+        <v>29</v>
+      </c>
+      <c r="B13" s="46"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -3354,15 +3397,15 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
+        <v>30</v>
+      </c>
+      <c r="B14" s="46"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -3384,15 +3427,15 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
+        <v>31</v>
+      </c>
+      <c r="B15" s="46"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -3414,15 +3457,15 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1">
       <c r="A16" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
+        <v>32</v>
+      </c>
+      <c r="B16" s="46"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -3444,15 +3487,15 @@
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1">
       <c r="A17" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
+        <v>33</v>
+      </c>
+      <c r="B17" s="46"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -3474,15 +3517,15 @@
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1">
       <c r="A18" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
+        <v>34</v>
+      </c>
+      <c r="B18" s="46"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -3504,15 +3547,15 @@
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1">
       <c r="A19" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
+        <v>35</v>
+      </c>
+      <c r="B19" s="46"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -3534,15 +3577,15 @@
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1">
       <c r="A20" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
+        <v>36</v>
+      </c>
+      <c r="B20" s="46"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -3564,15 +3607,15 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1">
       <c r="A21" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
+        <v>37</v>
+      </c>
+      <c r="B21" s="46"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -3594,15 +3637,15 @@
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
+        <v>38</v>
+      </c>
+      <c r="B22" s="46"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -3624,15 +3667,15 @@
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
       <c r="A23" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
+        <v>39</v>
+      </c>
+      <c r="B23" s="46"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -3654,15 +3697,15 @@
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1">
       <c r="A24" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
+        <v>40</v>
+      </c>
+      <c r="B24" s="46"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -3684,15 +3727,15 @@
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1">
       <c r="A25" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="42"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
+        <v>41</v>
+      </c>
+      <c r="B25" s="46"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -3714,15 +3757,15 @@
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1">
       <c r="A26" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
+        <v>42</v>
+      </c>
+      <c r="B26" s="46"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -3743,16 +3786,16 @@
       <c r="Z26" s="3"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A27" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="43"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
+      <c r="A27" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="46"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -3773,30 +3816,16 @@
       <c r="Z27" s="3"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A28" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="11">
-        <v>2017</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>49</v>
-      </c>
+      <c r="A28" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="43"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -3817,26 +3846,26 @@
       <c r="Z28" s="3"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A29" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="47">
-        <v>2012</v>
-      </c>
-      <c r="D29" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="F29" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="G29" s="47" t="s">
-        <v>55</v>
+      <c r="A29" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="11">
+        <v>2017</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="H29" s="11" t="s">
         <v>49</v>
@@ -3861,15 +3890,27 @@
       <c r="Z29" s="3"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A30" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
+      <c r="A30" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="50">
+        <v>2012</v>
+      </c>
+      <c r="D30" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="G30" s="50" t="s">
+        <v>55</v>
+      </c>
       <c r="H30" s="11" t="s">
         <v>49</v>
       </c>
@@ -3893,15 +3934,15 @@
       <c r="Z30" s="3"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A31" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" s="43"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
+      <c r="A31" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="46"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
       <c r="H31" s="11" t="s">
         <v>49</v>
       </c>
@@ -3926,26 +3967,14 @@
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1">
       <c r="A32" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" s="11">
-        <v>2000</v>
-      </c>
-      <c r="D32" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>61</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B32" s="43"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
       <c r="H32" s="11" t="s">
         <v>49</v>
       </c>
@@ -3969,26 +3998,26 @@
       <c r="Z32" s="3"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A33" s="11" t="s">
-        <v>62</v>
+      <c r="A33" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C33" s="11">
-        <v>2016</v>
+        <v>2000</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H33" s="11" t="s">
         <v>49</v>
@@ -4014,25 +4043,25 @@
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1">
       <c r="A34" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C34" s="11">
-        <v>2017</v>
-      </c>
-      <c r="D34" s="11" t="s">
+        <v>2016</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="34" t="s">
-        <v>68</v>
-      </c>
       <c r="F34" s="11" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H34" s="11" t="s">
         <v>49</v>
@@ -4058,25 +4087,25 @@
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1">
       <c r="A35" s="11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C35" s="11">
-        <v>1998</v>
-      </c>
-      <c r="D35" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="E35" s="11" t="s">
+        <v>2017</v>
+      </c>
+      <c r="D35" s="11" t="s">
         <v>8</v>
       </c>
+      <c r="E35" s="34" t="s">
+        <v>68</v>
+      </c>
       <c r="F35" s="11" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H35" s="11" t="s">
         <v>49</v>
@@ -4102,25 +4131,25 @@
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1">
       <c r="A36" s="11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C36" s="11">
-        <v>2017</v>
-      </c>
-      <c r="D36" s="11" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="11" t="s">
-        <v>9</v>
-      </c>
       <c r="F36" s="11" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H36" s="11" t="s">
         <v>49</v>
@@ -4146,10 +4175,10 @@
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1">
       <c r="A37" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C37" s="11">
         <v>2017</v>
@@ -4158,13 +4187,13 @@
         <v>8</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H37" s="11" t="s">
         <v>49</v>
@@ -4190,10 +4219,10 @@
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1">
       <c r="A38" s="11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C38" s="11">
         <v>2017</v>
@@ -4202,13 +4231,13 @@
         <v>8</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H38" s="11" t="s">
         <v>49</v>
@@ -4234,10 +4263,10 @@
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1">
       <c r="A39" s="11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C39" s="11">
         <v>2017</v>
@@ -4246,13 +4275,13 @@
         <v>8</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H39" s="11" t="s">
         <v>49</v>
@@ -4278,25 +4307,25 @@
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1">
       <c r="A40" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C40" s="11">
-        <v>1998</v>
+        <v>2017</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="F40" s="11" t="s">
         <v>47</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H40" s="11" t="s">
         <v>49</v>
@@ -4322,25 +4351,25 @@
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1">
       <c r="A41" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C41" s="11">
-        <v>2017</v>
+        <v>1998</v>
       </c>
       <c r="D41" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E41" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="11" t="s">
-        <v>9</v>
-      </c>
       <c r="F41" s="11" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="H41" s="11" t="s">
         <v>49</v>
@@ -4366,25 +4395,25 @@
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1">
       <c r="A42" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D42" s="33" t="s">
-        <v>91</v>
+        <v>75</v>
+      </c>
+      <c r="C42" s="11">
+        <v>2017</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="F42" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H42" s="11" t="s">
         <v>49</v>
@@ -4409,28 +4438,28 @@
       <c r="Z42" s="3"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A43" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C43" s="14">
-        <v>2014</v>
-      </c>
-      <c r="D43" s="35" t="s">
-        <v>679</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="G43" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="H43" s="14" t="s">
+      <c r="A43" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H43" s="11" t="s">
         <v>49</v>
       </c>
       <c r="I43" s="3"/>
@@ -4454,22 +4483,26 @@
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1">
       <c r="A44" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B44" s="35" t="s">
-        <v>680</v>
+        <v>94</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>95</v>
       </c>
       <c r="C44" s="14">
         <v>2014</v>
       </c>
       <c r="D44" s="35" t="s">
-        <v>681</v>
-      </c>
-      <c r="E44" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="F44" s="39"/>
-      <c r="G44" s="39"/>
+        <v>679</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="G44" s="39" t="s">
+        <v>97</v>
+      </c>
       <c r="H44" s="14" t="s">
         <v>49</v>
       </c>
@@ -4494,26 +4527,22 @@
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1">
       <c r="A45" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>101</v>
+        <v>98</v>
+      </c>
+      <c r="B45" s="35" t="s">
+        <v>680</v>
       </c>
       <c r="C45" s="14">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="D45" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="G45" s="14" t="s">
-        <v>104</v>
-      </c>
+        <v>681</v>
+      </c>
+      <c r="E45" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
       <c r="H45" s="14" t="s">
         <v>49</v>
       </c>
@@ -4536,27 +4565,27 @@
       <c r="Y45" s="3"/>
       <c r="Z45" s="3"/>
     </row>
-    <row r="46" spans="1:26" ht="27" customHeight="1">
+    <row r="46" spans="1:26" ht="15.75" customHeight="1">
       <c r="A46" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="B46" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="C46" s="48">
-        <v>2016</v>
-      </c>
-      <c r="D46" s="50" t="s">
-        <v>107</v>
-      </c>
-      <c r="E46" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" s="14">
+        <v>2011</v>
+      </c>
+      <c r="D46" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="E46" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F46" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="G46" s="48" t="s">
-        <v>108</v>
+      <c r="F46" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>104</v>
       </c>
       <c r="H46" s="14" t="s">
         <v>49</v>
@@ -4581,15 +4610,27 @@
       <c r="Z46" s="3"/>
     </row>
     <row r="47" spans="1:26" ht="27" customHeight="1">
-      <c r="A47" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="B47" s="39"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
+      <c r="A47" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B47" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" s="39">
+        <v>2016</v>
+      </c>
+      <c r="D47" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="E47" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="G47" s="39" t="s">
+        <v>108</v>
+      </c>
       <c r="H47" s="14" t="s">
         <v>49</v>
       </c>
@@ -4612,28 +4653,16 @@
       <c r="Y47" s="3"/>
       <c r="Z47" s="3"/>
     </row>
-    <row r="48" spans="1:26" ht="15.75" customHeight="1">
+    <row r="48" spans="1:26" ht="27" customHeight="1">
       <c r="A48" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B48" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="C48" s="48">
-        <v>2016</v>
-      </c>
-      <c r="D48" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="E48" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="F48" s="48" t="s">
-        <v>114</v>
-      </c>
-      <c r="G48" s="48" t="s">
-        <v>115</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="B48" s="40"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
       <c r="H48" s="14" t="s">
         <v>49</v>
       </c>
@@ -4657,15 +4686,27 @@
       <c r="Z48" s="3"/>
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A49" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="B49" s="42"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
+      <c r="A49" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B49" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" s="39">
+        <v>2016</v>
+      </c>
+      <c r="D49" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="E49" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="F49" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="G49" s="39" t="s">
+        <v>115</v>
+      </c>
       <c r="H49" s="14" t="s">
         <v>49</v>
       </c>
@@ -4689,19 +4730,15 @@
       <c r="Z49" s="3"/>
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A50" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="B50" s="43"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="G50" s="14" t="s">
-        <v>119</v>
-      </c>
+      <c r="A50" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B50" s="46"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
       <c r="H50" s="14" t="s">
         <v>49</v>
       </c>
@@ -4726,25 +4763,17 @@
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1">
       <c r="A51" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="C51" s="14">
-        <v>2015</v>
-      </c>
-      <c r="D51" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>8</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="B51" s="43"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
       <c r="F51" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="G51" s="48" t="s">
-        <v>123</v>
+        <v>118</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>119</v>
       </c>
       <c r="H51" s="14" t="s">
         <v>49</v>
@@ -4769,25 +4798,27 @@
       <c r="Z51" s="3"/>
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A52" s="14" t="s">
-        <v>124</v>
+      <c r="A52" s="17" t="s">
+        <v>120</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C52" s="14">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D52" s="35" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>127</v>
+        <v>8</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="G52" s="38"/>
+        <v>96</v>
+      </c>
+      <c r="G52" s="39" t="s">
+        <v>123</v>
+      </c>
       <c r="H52" s="14" t="s">
         <v>49</v>
       </c>
@@ -4812,24 +4843,24 @@
     </row>
     <row r="53" spans="1:26" ht="15.75" customHeight="1">
       <c r="A53" s="14" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C53" s="14">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="D53" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="E53" s="48" t="s">
-        <v>8</v>
+        <v>126</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>127</v>
       </c>
       <c r="F53" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="G53" s="38"/>
+        <v>118</v>
+      </c>
+      <c r="G53" s="41"/>
       <c r="H53" s="14" t="s">
         <v>49</v>
       </c>
@@ -4854,22 +4885,24 @@
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B54" s="14" t="s">
         <v>129</v>
       </c>
       <c r="C54" s="14">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D54" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="E54" s="38"/>
+        <v>130</v>
+      </c>
+      <c r="E54" s="39" t="s">
+        <v>8</v>
+      </c>
       <c r="F54" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="G54" s="38"/>
+      <c r="G54" s="41"/>
       <c r="H54" s="14" t="s">
         <v>49</v>
       </c>
@@ -4894,22 +4927,22 @@
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1">
       <c r="A55" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B55" s="14" t="s">
         <v>129</v>
       </c>
       <c r="C55" s="14">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="D55" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="E55" s="39"/>
+        <v>132</v>
+      </c>
+      <c r="E55" s="41"/>
       <c r="F55" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="G55" s="39"/>
+      <c r="G55" s="41"/>
       <c r="H55" s="14" t="s">
         <v>49</v>
       </c>
@@ -4933,29 +4966,25 @@
       <c r="Z55" s="3"/>
     </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A56" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="C56" s="18">
-        <v>2014</v>
-      </c>
-      <c r="D56" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="E56" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="F56" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="G56" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="H56" s="18" t="s">
-        <v>141</v>
+      <c r="A56" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C56" s="14">
+        <v>2010</v>
+      </c>
+      <c r="D56" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="E56" s="40"/>
+      <c r="F56" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="G56" s="40"/>
+      <c r="H56" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
@@ -4978,28 +5007,28 @@
     </row>
     <row r="57" spans="1:26" ht="15.75" customHeight="1">
       <c r="A57" s="18" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B57" s="18" t="s">
         <v>136</v>
       </c>
       <c r="C57" s="18">
-        <v>2012</v>
-      </c>
-      <c r="D57" s="18" t="s">
-        <v>143</v>
+        <v>2014</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>137</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F57" s="18" t="s">
         <v>139</v>
       </c>
       <c r="G57" s="18" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H57" s="18" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
@@ -5022,28 +5051,28 @@
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1">
       <c r="A58" s="18" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C58" s="18">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E58" s="18" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F58" s="18" t="s">
         <v>139</v>
       </c>
       <c r="G58" s="18" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H58" s="18" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
@@ -5066,7 +5095,7 @@
     </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1">
       <c r="A59" s="18" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B59" s="18" t="s">
         <v>148</v>
@@ -5110,25 +5139,25 @@
     </row>
     <row r="60" spans="1:26" ht="15.75" customHeight="1">
       <c r="A60" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C60" s="18">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E60" s="18" t="s">
         <v>150</v>
       </c>
       <c r="F60" s="18" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="G60" s="18" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="H60" s="18" t="s">
         <v>152</v>
@@ -5154,26 +5183,28 @@
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1">
       <c r="A61" s="18" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C61" s="18">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E61" s="18"/>
+        <v>156</v>
+      </c>
+      <c r="E61" s="18" t="s">
+        <v>150</v>
+      </c>
       <c r="F61" s="18" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="G61" s="18" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H61" s="18" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
@@ -5196,28 +5227,26 @@
     </row>
     <row r="62" spans="1:26" ht="15.75" customHeight="1">
       <c r="A62" s="18" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C62" s="18">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="E62" s="18" t="s">
-        <v>164</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E62" s="18"/>
       <c r="F62" s="18" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="G62" s="18" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="H62" s="18" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
@@ -5240,28 +5269,28 @@
     </row>
     <row r="63" spans="1:26" ht="15.75" customHeight="1">
       <c r="A63" s="18" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C63" s="18">
-        <v>2003</v>
+        <v>2015</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>171</v>
+        <v>103</v>
       </c>
       <c r="G63" s="18" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="H63" s="18" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
@@ -5284,23 +5313,25 @@
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1">
       <c r="A64" s="18" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C64" s="18">
-        <v>2009</v>
+        <v>2003</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="E64" s="18"/>
+        <v>169</v>
+      </c>
+      <c r="E64" s="18" t="s">
+        <v>170</v>
+      </c>
       <c r="F64" s="18" t="s">
-        <v>103</v>
+        <v>171</v>
       </c>
       <c r="G64" s="18" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H64" s="18" t="s">
         <v>146</v>
@@ -5326,23 +5357,23 @@
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1">
       <c r="A65" s="18" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C65" s="18">
-        <v>2017</v>
-      </c>
-      <c r="D65" s="20" t="s">
-        <v>179</v>
+        <v>2009</v>
+      </c>
+      <c r="D65" s="18" t="s">
+        <v>175</v>
       </c>
       <c r="E65" s="18"/>
       <c r="F65" s="18" t="s">
         <v>103</v>
       </c>
       <c r="G65" s="18" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H65" s="18" t="s">
         <v>146</v>
@@ -5368,28 +5399,26 @@
     </row>
     <row r="66" spans="1:26" ht="15.75" customHeight="1">
       <c r="A66" s="18" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C66" s="18">
-        <v>2014</v>
-      </c>
-      <c r="D66" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="E66" s="18" t="s">
-        <v>184</v>
-      </c>
+        <v>2017</v>
+      </c>
+      <c r="D66" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="E66" s="18"/>
       <c r="F66" s="18" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="G66" s="18" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H66" s="18" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
@@ -5412,28 +5441,28 @@
     </row>
     <row r="67" spans="1:26" ht="15.75" customHeight="1">
       <c r="A67" s="18" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C67" s="18">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F67" s="18" t="s">
         <v>139</v>
       </c>
       <c r="G67" s="18" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="H67" s="18" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
@@ -5455,29 +5484,29 @@
       <c r="Z67" s="3"/>
     </row>
     <row r="68" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A68" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="B68" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="C68" s="21">
-        <v>2008</v>
-      </c>
-      <c r="D68" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="E68" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="F68" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="G68" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="H68" s="21" t="s">
-        <v>152</v>
+      <c r="A68" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="C68" s="18">
+        <v>2012</v>
+      </c>
+      <c r="D68" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="E68" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="F68" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="G68" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="H68" s="18" t="s">
+        <v>146</v>
       </c>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
@@ -5499,29 +5528,29 @@
       <c r="Z68" s="3"/>
     </row>
     <row r="69" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A69" s="22" t="s">
-        <v>197</v>
+      <c r="A69" s="21" t="s">
+        <v>192</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="C69" s="21">
-        <v>2013</v>
-      </c>
-      <c r="D69" s="51" t="s">
-        <v>198</v>
+        <v>2008</v>
+      </c>
+      <c r="D69" s="21" t="s">
+        <v>194</v>
       </c>
       <c r="E69" s="21" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="F69" s="21" t="s">
-        <v>139</v>
+        <v>195</v>
       </c>
       <c r="G69" s="21" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H69" s="21" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
@@ -5544,28 +5573,28 @@
     </row>
     <row r="70" spans="1:26" ht="15.75" customHeight="1">
       <c r="A70" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="B70" s="45" t="s">
-        <v>202</v>
-      </c>
-      <c r="C70" s="37">
-        <v>2015</v>
+        <v>197</v>
+      </c>
+      <c r="B70" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="C70" s="21">
+        <v>2013</v>
       </c>
       <c r="D70" s="37" t="s">
-        <v>203</v>
-      </c>
-      <c r="E70" s="37" t="s">
-        <v>204</v>
-      </c>
-      <c r="F70" s="37" t="s">
-        <v>205</v>
-      </c>
-      <c r="G70" s="37" t="s">
-        <v>205</v>
-      </c>
-      <c r="H70" s="37" t="s">
-        <v>146</v>
+        <v>198</v>
+      </c>
+      <c r="E70" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="F70" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="G70" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="H70" s="21" t="s">
+        <v>141</v>
       </c>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
@@ -5587,16 +5616,30 @@
       <c r="Z70" s="3"/>
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A71" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="B71" s="43"/>
-      <c r="C71" s="39"/>
-      <c r="D71" s="39"/>
-      <c r="E71" s="39"/>
-      <c r="F71" s="39"/>
-      <c r="G71" s="39"/>
-      <c r="H71" s="39"/>
+      <c r="A71" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="B71" s="42" t="s">
+        <v>202</v>
+      </c>
+      <c r="C71" s="44">
+        <v>2015</v>
+      </c>
+      <c r="D71" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="E71" s="44" t="s">
+        <v>204</v>
+      </c>
+      <c r="F71" s="44" t="s">
+        <v>205</v>
+      </c>
+      <c r="G71" s="44" t="s">
+        <v>205</v>
+      </c>
+      <c r="H71" s="44" t="s">
+        <v>146</v>
+      </c>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
@@ -5618,29 +5661,15 @@
     </row>
     <row r="72" spans="1:26" ht="15.75" customHeight="1">
       <c r="A72" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="B72" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="C72" s="21">
-        <v>2013</v>
-      </c>
-      <c r="D72" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="E72" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="F72" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="G72" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="H72" s="21" t="s">
-        <v>146</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="B72" s="43"/>
+      <c r="C72" s="40"/>
+      <c r="D72" s="40"/>
+      <c r="E72" s="40"/>
+      <c r="F72" s="40"/>
+      <c r="G72" s="40"/>
+      <c r="H72" s="40"/>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
@@ -5661,27 +5690,29 @@
       <c r="Z72" s="3"/>
     </row>
     <row r="73" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A73" s="21" t="s">
-        <v>211</v>
+      <c r="A73" s="23" t="s">
+        <v>207</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>159</v>
+        <v>208</v>
       </c>
       <c r="C73" s="21">
-        <v>2012</v>
-      </c>
-      <c r="D73" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="E73" s="21"/>
+        <v>2013</v>
+      </c>
+      <c r="D73" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="E73" s="21" t="s">
+        <v>210</v>
+      </c>
       <c r="F73" s="21" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G73" s="21" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="H73" s="21" t="s">
-        <v>214</v>
+        <v>146</v>
       </c>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
@@ -5704,7 +5735,7 @@
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1">
       <c r="A74" s="21" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B74" s="21" t="s">
         <v>159</v>
@@ -5717,13 +5748,13 @@
       </c>
       <c r="E74" s="21"/>
       <c r="F74" s="21" t="s">
-        <v>139</v>
+        <v>212</v>
       </c>
       <c r="G74" s="21" t="s">
-        <v>160</v>
+        <v>213</v>
       </c>
       <c r="H74" s="21" t="s">
-        <v>146</v>
+        <v>214</v>
       </c>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
@@ -5746,28 +5777,26 @@
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1">
       <c r="A75" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B75" s="21" t="s">
-        <v>217</v>
+        <v>159</v>
       </c>
       <c r="C75" s="21">
-        <v>2017</v>
-      </c>
-      <c r="D75" s="51" t="s">
-        <v>218</v>
-      </c>
-      <c r="E75" s="21" t="s">
-        <v>219</v>
-      </c>
+        <v>2012</v>
+      </c>
+      <c r="D75" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E75" s="21"/>
       <c r="F75" s="21" t="s">
-        <v>212</v>
+        <v>139</v>
       </c>
       <c r="G75" s="21" t="s">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="H75" s="21" t="s">
-        <v>221</v>
+        <v>146</v>
       </c>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
@@ -5790,28 +5819,28 @@
     </row>
     <row r="76" spans="1:26" ht="15.75" customHeight="1">
       <c r="A76" s="21" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C76" s="21">
-        <v>2013</v>
-      </c>
-      <c r="D76" s="51" t="s">
-        <v>224</v>
+        <v>2017</v>
+      </c>
+      <c r="D76" s="37" t="s">
+        <v>218</v>
       </c>
       <c r="E76" s="21" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F76" s="21" t="s">
         <v>212</v>
       </c>
       <c r="G76" s="21" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="H76" s="21" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
@@ -5833,8 +5862,8 @@
       <c r="Z76" s="3"/>
     </row>
     <row r="77" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A77" s="22" t="s">
-        <v>227</v>
+      <c r="A77" s="21" t="s">
+        <v>222</v>
       </c>
       <c r="B77" s="21" t="s">
         <v>223</v>
@@ -5842,7 +5871,7 @@
       <c r="C77" s="21">
         <v>2013</v>
       </c>
-      <c r="D77" s="21" t="s">
+      <c r="D77" s="37" t="s">
         <v>224</v>
       </c>
       <c r="E77" s="21" t="s">
@@ -5878,27 +5907,29 @@
     </row>
     <row r="78" spans="1:26" ht="15.75" customHeight="1">
       <c r="A78" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="B78" s="45" t="s">
-        <v>229</v>
-      </c>
-      <c r="C78" s="37">
+        <v>227</v>
+      </c>
+      <c r="B78" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="C78" s="21">
         <v>2013</v>
       </c>
-      <c r="D78" s="37" t="s">
-        <v>230</v>
-      </c>
-      <c r="E78" s="37" t="s">
-        <v>231</v>
-      </c>
-      <c r="F78" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="G78" s="37" t="s">
-        <v>232</v>
-      </c>
-      <c r="H78" s="21"/>
+      <c r="D78" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="E78" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="F78" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="G78" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="H78" s="21" t="s">
+        <v>214</v>
+      </c>
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
@@ -5919,15 +5950,27 @@
       <c r="Z78" s="3"/>
     </row>
     <row r="79" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A79" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="B79" s="42"/>
-      <c r="C79" s="38"/>
-      <c r="D79" s="38"/>
-      <c r="E79" s="38"/>
-      <c r="F79" s="38"/>
-      <c r="G79" s="38"/>
+      <c r="A79" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="B79" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="C79" s="44">
+        <v>2013</v>
+      </c>
+      <c r="D79" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="E79" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="F79" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="G79" s="44" t="s">
+        <v>232</v>
+      </c>
       <c r="H79" s="21"/>
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
@@ -5950,17 +5993,15 @@
     </row>
     <row r="80" spans="1:26" ht="15.75" customHeight="1">
       <c r="A80" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="B80" s="42"/>
-      <c r="C80" s="38"/>
-      <c r="D80" s="38"/>
-      <c r="E80" s="38"/>
-      <c r="F80" s="38"/>
-      <c r="G80" s="38"/>
-      <c r="H80" s="21" t="s">
-        <v>235</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="B80" s="46"/>
+      <c r="C80" s="41"/>
+      <c r="D80" s="41"/>
+      <c r="E80" s="41"/>
+      <c r="F80" s="41"/>
+      <c r="G80" s="41"/>
+      <c r="H80" s="21"/>
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
@@ -5982,15 +6023,17 @@
     </row>
     <row r="81" spans="1:26" ht="15.75" customHeight="1">
       <c r="A81" s="25" t="s">
-        <v>236</v>
-      </c>
-      <c r="B81" s="43"/>
-      <c r="C81" s="39"/>
-      <c r="D81" s="39"/>
-      <c r="E81" s="39"/>
-      <c r="F81" s="39"/>
-      <c r="G81" s="39"/>
-      <c r="H81" s="21"/>
+        <v>234</v>
+      </c>
+      <c r="B81" s="46"/>
+      <c r="C81" s="41"/>
+      <c r="D81" s="41"/>
+      <c r="E81" s="41"/>
+      <c r="F81" s="41"/>
+      <c r="G81" s="41"/>
+      <c r="H81" s="21" t="s">
+        <v>235</v>
+      </c>
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
@@ -6010,31 +6053,17 @@
       <c r="Y81" s="3"/>
       <c r="Z81" s="3"/>
     </row>
-    <row r="82" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A82" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="B82" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="C82" s="37">
-        <v>2010</v>
-      </c>
-      <c r="D82" s="37" t="s">
-        <v>239</v>
-      </c>
-      <c r="E82" s="37" t="s">
-        <v>240</v>
-      </c>
-      <c r="F82" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="G82" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="H82" s="37" t="s">
-        <v>146</v>
-      </c>
+    <row r="82" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A82" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="B82" s="43"/>
+      <c r="C82" s="40"/>
+      <c r="D82" s="40"/>
+      <c r="E82" s="40"/>
+      <c r="F82" s="40"/>
+      <c r="G82" s="40"/>
+      <c r="H82" s="21"/>
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
@@ -6054,17 +6083,31 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
     </row>
-    <row r="83" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A83" s="23" t="s">
-        <v>242</v>
-      </c>
-      <c r="B83" s="43"/>
-      <c r="C83" s="39"/>
-      <c r="D83" s="39"/>
-      <c r="E83" s="39"/>
-      <c r="F83" s="39"/>
-      <c r="G83" s="39"/>
-      <c r="H83" s="39"/>
+    <row r="83" spans="1:26" ht="63.75" customHeight="1">
+      <c r="A83" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="B83" s="42" t="s">
+        <v>238</v>
+      </c>
+      <c r="C83" s="44">
+        <v>2010</v>
+      </c>
+      <c r="D83" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="E83" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="F83" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="G83" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="H83" s="44" t="s">
+        <v>146</v>
+      </c>
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
@@ -6086,27 +6129,15 @@
     </row>
     <row r="84" spans="1:26" ht="15.75" customHeight="1">
       <c r="A84" s="23" t="s">
-        <v>243</v>
-      </c>
-      <c r="B84" s="21" t="s">
-        <v>244</v>
-      </c>
-      <c r="C84" s="21">
-        <v>2017</v>
-      </c>
-      <c r="D84" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E84" s="21" t="s">
-        <v>245</v>
-      </c>
-      <c r="F84" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="G84" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="H84" s="21"/>
+        <v>242</v>
+      </c>
+      <c r="B84" s="43"/>
+      <c r="C84" s="40"/>
+      <c r="D84" s="40"/>
+      <c r="E84" s="40"/>
+      <c r="F84" s="40"/>
+      <c r="G84" s="40"/>
+      <c r="H84" s="40"/>
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
@@ -6127,30 +6158,28 @@
       <c r="Z84" s="3"/>
     </row>
     <row r="85" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A85" s="21" t="s">
-        <v>248</v>
+      <c r="A85" s="23" t="s">
+        <v>243</v>
       </c>
       <c r="B85" s="21" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C85" s="21">
-        <v>2006</v>
-      </c>
-      <c r="D85" s="26" t="s">
-        <v>250</v>
+        <v>2017</v>
+      </c>
+      <c r="D85" s="21" t="s">
+        <v>8</v>
       </c>
       <c r="E85" s="21" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F85" s="21" t="s">
-        <v>195</v>
+        <v>246</v>
       </c>
       <c r="G85" s="21" t="s">
-        <v>252</v>
-      </c>
-      <c r="H85" s="21" t="s">
-        <v>146</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="H85" s="21"/>
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
@@ -6172,25 +6201,25 @@
     </row>
     <row r="86" spans="1:26" ht="15.75" customHeight="1">
       <c r="A86" s="21" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B86" s="21" t="s">
         <v>249</v>
       </c>
       <c r="C86" s="21">
-        <v>2012</v>
-      </c>
-      <c r="D86" s="21" t="s">
-        <v>254</v>
+        <v>2006</v>
+      </c>
+      <c r="D86" s="26" t="s">
+        <v>250</v>
       </c>
       <c r="E86" s="21" t="s">
         <v>251</v>
       </c>
       <c r="F86" s="21" t="s">
-        <v>255</v>
+        <v>195</v>
       </c>
       <c r="G86" s="21" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H86" s="21" t="s">
         <v>146</v>
@@ -6216,16 +6245,16 @@
     </row>
     <row r="87" spans="1:26" ht="15.75" customHeight="1">
       <c r="A87" s="21" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B87" s="21" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C87" s="21">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D87" s="21" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E87" s="21" t="s">
         <v>251</v>
@@ -6234,7 +6263,7 @@
         <v>255</v>
       </c>
       <c r="G87" s="21" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H87" s="21" t="s">
         <v>146</v>
@@ -6260,25 +6289,25 @@
     </row>
     <row r="88" spans="1:26" ht="15.75" customHeight="1">
       <c r="A88" s="21" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B88" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="C88" s="21" t="s">
-        <v>170</v>
+        <v>258</v>
+      </c>
+      <c r="C88" s="21">
+        <v>2013</v>
       </c>
       <c r="D88" s="21" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E88" s="21" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="F88" s="21" t="s">
-        <v>195</v>
+        <v>255</v>
       </c>
       <c r="G88" s="21" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="H88" s="21" t="s">
         <v>146</v>
@@ -6304,28 +6333,28 @@
     </row>
     <row r="89" spans="1:26" ht="15.75" customHeight="1">
       <c r="A89" s="21" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B89" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="C89" s="21">
-        <v>2013</v>
+        <v>262</v>
+      </c>
+      <c r="C89" s="21" t="s">
+        <v>170</v>
       </c>
       <c r="D89" s="21" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E89" s="21" t="s">
-        <v>170</v>
+        <v>264</v>
       </c>
       <c r="F89" s="21" t="s">
         <v>195</v>
       </c>
       <c r="G89" s="21" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H89" s="21" t="s">
-        <v>270</v>
+        <v>146</v>
       </c>
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
@@ -6348,16 +6377,16 @@
     </row>
     <row r="90" spans="1:26" ht="15.75" customHeight="1">
       <c r="A90" s="21" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B90" s="21" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C90" s="21">
-        <v>2007</v>
+        <v>2013</v>
       </c>
       <c r="D90" s="21" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E90" s="21" t="s">
         <v>170</v>
@@ -6366,10 +6395,10 @@
         <v>195</v>
       </c>
       <c r="G90" s="21" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="H90" s="21" t="s">
-        <v>146</v>
+        <v>270</v>
       </c>
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
@@ -6392,28 +6421,28 @@
     </row>
     <row r="91" spans="1:26" ht="15.75" customHeight="1">
       <c r="A91" s="21" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B91" s="21" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C91" s="21">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="D91" s="21" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E91" s="21" t="s">
-        <v>278</v>
+        <v>170</v>
       </c>
       <c r="F91" s="21" t="s">
-        <v>139</v>
+        <v>195</v>
       </c>
       <c r="G91" s="21" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="H91" s="21" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
@@ -6436,28 +6465,28 @@
     </row>
     <row r="92" spans="1:26" ht="15.75" customHeight="1">
       <c r="A92" s="21" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B92" s="21" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C92" s="21">
-        <v>2010</v>
+        <v>2004</v>
       </c>
       <c r="D92" s="21" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E92" s="21" t="s">
-        <v>170</v>
+        <v>278</v>
       </c>
       <c r="F92" s="21" t="s">
-        <v>195</v>
+        <v>139</v>
       </c>
       <c r="G92" s="21" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="H92" s="21" t="s">
-        <v>283</v>
+        <v>141</v>
       </c>
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
@@ -6480,28 +6509,28 @@
     </row>
     <row r="93" spans="1:26" ht="15.75" customHeight="1">
       <c r="A93" s="21" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B93" s="21" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C93" s="21">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="D93" s="21" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E93" s="21" t="s">
-        <v>287</v>
+        <v>170</v>
       </c>
       <c r="F93" s="21" t="s">
-        <v>139</v>
+        <v>195</v>
       </c>
       <c r="G93" s="21" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="H93" s="21" t="s">
-        <v>146</v>
+        <v>283</v>
       </c>
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
@@ -6523,28 +6552,28 @@
       <c r="Z93" s="3"/>
     </row>
     <row r="94" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A94" s="27" t="s">
-        <v>289</v>
-      </c>
-      <c r="B94" s="27" t="s">
-        <v>290</v>
-      </c>
-      <c r="C94" s="27">
-        <v>1991</v>
-      </c>
-      <c r="D94" s="52" t="s">
-        <v>291</v>
-      </c>
-      <c r="E94" s="28" t="s">
-        <v>292</v>
-      </c>
-      <c r="F94" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="G94" s="27" t="s">
-        <v>293</v>
-      </c>
-      <c r="H94" s="27" t="s">
+      <c r="A94" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="B94" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="C94" s="21">
+        <v>2015</v>
+      </c>
+      <c r="D94" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="E94" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="F94" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="G94" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="H94" s="21" t="s">
         <v>146</v>
       </c>
       <c r="I94" s="3"/>
@@ -6568,16 +6597,16 @@
     </row>
     <row r="95" spans="1:26" ht="15.75" customHeight="1">
       <c r="A95" s="27" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B95" s="27" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C95" s="27">
-        <v>2017</v>
-      </c>
-      <c r="D95" s="52" t="s">
-        <v>296</v>
+        <v>1991</v>
+      </c>
+      <c r="D95" s="38" t="s">
+        <v>291</v>
       </c>
       <c r="E95" s="28" t="s">
         <v>292</v>
@@ -6586,7 +6615,7 @@
         <v>103</v>
       </c>
       <c r="G95" s="27" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H95" s="27" t="s">
         <v>146</v>
@@ -6612,16 +6641,16 @@
     </row>
     <row r="96" spans="1:26" ht="15.75" customHeight="1">
       <c r="A96" s="27" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B96" s="27" t="s">
-        <v>168</v>
+        <v>295</v>
       </c>
       <c r="C96" s="27">
-        <v>2015</v>
-      </c>
-      <c r="D96" s="27" t="s">
-        <v>299</v>
+        <v>2017</v>
+      </c>
+      <c r="D96" s="38" t="s">
+        <v>296</v>
       </c>
       <c r="E96" s="28" t="s">
         <v>292</v>
@@ -6630,7 +6659,7 @@
         <v>103</v>
       </c>
       <c r="G96" s="27" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H96" s="27" t="s">
         <v>146</v>
@@ -6656,16 +6685,16 @@
     </row>
     <row r="97" spans="1:26" ht="15.75" customHeight="1">
       <c r="A97" s="27" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B97" s="27" t="s">
-        <v>302</v>
+        <v>168</v>
       </c>
       <c r="C97" s="27">
-        <v>1997</v>
+        <v>2015</v>
       </c>
       <c r="D97" s="27" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E97" s="28" t="s">
         <v>292</v>
@@ -6674,7 +6703,7 @@
         <v>103</v>
       </c>
       <c r="G97" s="27" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H97" s="27" t="s">
         <v>146</v>
@@ -6699,28 +6728,28 @@
       <c r="Z97" s="3"/>
     </row>
     <row r="98" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A98" s="28" t="s">
-        <v>305</v>
-      </c>
-      <c r="B98" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="C98" s="28">
-        <v>2008</v>
-      </c>
-      <c r="D98" s="29" t="s">
-        <v>194</v>
+      <c r="A98" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="B98" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="C98" s="27">
+        <v>1997</v>
+      </c>
+      <c r="D98" s="27" t="s">
+        <v>303</v>
       </c>
       <c r="E98" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="F98" s="28" t="s">
-        <v>306</v>
-      </c>
-      <c r="G98" s="28" t="s">
-        <v>307</v>
-      </c>
-      <c r="H98" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="F98" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="G98" s="27" t="s">
+        <v>304</v>
+      </c>
+      <c r="H98" s="27" t="s">
         <v>146</v>
       </c>
       <c r="I98" s="3"/>
@@ -6744,16 +6773,16 @@
     </row>
     <row r="99" spans="1:26" ht="15.75" customHeight="1">
       <c r="A99" s="28" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B99" s="28" t="s">
-        <v>309</v>
+        <v>193</v>
       </c>
       <c r="C99" s="28">
-        <v>1999</v>
+        <v>2008</v>
       </c>
       <c r="D99" s="29" t="s">
-        <v>310</v>
+        <v>194</v>
       </c>
       <c r="E99" s="28" t="s">
         <v>170</v>
@@ -6762,7 +6791,7 @@
         <v>306</v>
       </c>
       <c r="G99" s="28" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H99" s="28" t="s">
         <v>146</v>
@@ -6788,16 +6817,16 @@
     </row>
     <row r="100" spans="1:26" ht="15.75" customHeight="1">
       <c r="A100" s="28" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B100" s="28" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C100" s="28">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="D100" s="29" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E100" s="28" t="s">
         <v>170</v>
@@ -6806,7 +6835,7 @@
         <v>306</v>
       </c>
       <c r="G100" s="28" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H100" s="28" t="s">
         <v>146</v>
@@ -6832,16 +6861,16 @@
     </row>
     <row r="101" spans="1:26" ht="15.75" customHeight="1">
       <c r="A101" s="28" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B101" s="28" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C101" s="28">
-        <v>1989</v>
+        <v>1997</v>
       </c>
       <c r="D101" s="29" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="E101" s="28" t="s">
         <v>170</v>
@@ -6850,7 +6879,7 @@
         <v>306</v>
       </c>
       <c r="G101" s="28" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="H101" s="28" t="s">
         <v>146</v>
@@ -6876,7 +6905,7 @@
     </row>
     <row r="102" spans="1:26" ht="15.75" customHeight="1">
       <c r="A102" s="28" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B102" s="28" t="s">
         <v>316</v>
@@ -6894,7 +6923,7 @@
         <v>306</v>
       </c>
       <c r="G102" s="28" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H102" s="28" t="s">
         <v>146</v>
@@ -6920,7 +6949,7 @@
     </row>
     <row r="103" spans="1:26" ht="15.75" customHeight="1">
       <c r="A103" s="28" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B103" s="28" t="s">
         <v>316</v>
@@ -6938,7 +6967,7 @@
         <v>306</v>
       </c>
       <c r="G103" s="28" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H103" s="28" t="s">
         <v>146</v>
@@ -6964,7 +6993,7 @@
     </row>
     <row r="104" spans="1:26" ht="15.75" customHeight="1">
       <c r="A104" s="28" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B104" s="28" t="s">
         <v>316</v>
@@ -6982,7 +7011,7 @@
         <v>306</v>
       </c>
       <c r="G104" s="28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H104" s="28" t="s">
         <v>146</v>
@@ -7007,29 +7036,29 @@
       <c r="Z104" s="3"/>
     </row>
     <row r="105" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A105" s="27" t="s">
-        <v>325</v>
-      </c>
-      <c r="B105" s="27" t="s">
-        <v>326</v>
-      </c>
-      <c r="C105" s="27">
-        <v>2014</v>
-      </c>
-      <c r="D105" s="52" t="s">
-        <v>327</v>
-      </c>
-      <c r="E105" s="27" t="s">
-        <v>292</v>
-      </c>
-      <c r="F105" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="G105" s="27" t="s">
-        <v>328</v>
-      </c>
-      <c r="H105" s="27" t="s">
-        <v>166</v>
+      <c r="A105" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B105" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="C105" s="28">
+        <v>1989</v>
+      </c>
+      <c r="D105" s="29" t="s">
+        <v>317</v>
+      </c>
+      <c r="E105" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="F105" s="28" t="s">
+        <v>306</v>
+      </c>
+      <c r="G105" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="H105" s="28" t="s">
+        <v>146</v>
       </c>
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
@@ -7052,25 +7081,25 @@
     </row>
     <row r="106" spans="1:26" ht="15.75" customHeight="1">
       <c r="A106" s="27" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B106" s="27" t="s">
-        <v>168</v>
+        <v>326</v>
       </c>
       <c r="C106" s="27">
-        <v>2015</v>
-      </c>
-      <c r="D106" s="27" t="s">
-        <v>330</v>
+        <v>2014</v>
+      </c>
+      <c r="D106" s="38" t="s">
+        <v>327</v>
       </c>
       <c r="E106" s="27" t="s">
-        <v>199</v>
+        <v>292</v>
       </c>
       <c r="F106" s="27" t="s">
         <v>103</v>
       </c>
       <c r="G106" s="27" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="H106" s="27" t="s">
         <v>166</v>
@@ -7096,25 +7125,25 @@
     </row>
     <row r="107" spans="1:26" ht="15.75" customHeight="1">
       <c r="A107" s="27" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B107" s="27" t="s">
-        <v>333</v>
+        <v>168</v>
       </c>
       <c r="C107" s="27">
         <v>2015</v>
       </c>
       <c r="D107" s="27" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E107" s="27" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="F107" s="27" t="s">
         <v>103</v>
       </c>
       <c r="G107" s="27" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H107" s="27" t="s">
         <v>166</v>
@@ -7140,16 +7169,16 @@
     </row>
     <row r="108" spans="1:26" ht="15.75" customHeight="1">
       <c r="A108" s="27" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B108" s="27" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C108" s="27">
-        <v>2012</v>
-      </c>
-      <c r="D108" s="52" t="s">
-        <v>338</v>
+        <v>2015</v>
+      </c>
+      <c r="D108" s="27" t="s">
+        <v>334</v>
       </c>
       <c r="E108" s="27" t="s">
         <v>170</v>
@@ -7158,7 +7187,7 @@
         <v>103</v>
       </c>
       <c r="G108" s="27" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="H108" s="27" t="s">
         <v>166</v>
@@ -7184,16 +7213,16 @@
     </row>
     <row r="109" spans="1:26" ht="15.75" customHeight="1">
       <c r="A109" s="27" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B109" s="27" t="s">
-        <v>341</v>
-      </c>
-      <c r="C109" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="D109" s="27" t="s">
-        <v>342</v>
+        <v>337</v>
+      </c>
+      <c r="C109" s="27">
+        <v>2012</v>
+      </c>
+      <c r="D109" s="38" t="s">
+        <v>338</v>
       </c>
       <c r="E109" s="27" t="s">
         <v>170</v>
@@ -7202,7 +7231,7 @@
         <v>103</v>
       </c>
       <c r="G109" s="27" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="H109" s="27" t="s">
         <v>166</v>
@@ -7228,28 +7257,28 @@
     </row>
     <row r="110" spans="1:26" ht="15.75" customHeight="1">
       <c r="A110" s="27" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B110" s="27" t="s">
-        <v>345</v>
-      </c>
-      <c r="C110" s="28">
-        <v>2006</v>
-      </c>
-      <c r="D110" s="30" t="s">
-        <v>346</v>
+        <v>341</v>
+      </c>
+      <c r="C110" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="D110" s="27" t="s">
+        <v>342</v>
       </c>
       <c r="E110" s="27" t="s">
         <v>170</v>
       </c>
       <c r="F110" s="27" t="s">
-        <v>306</v>
+        <v>103</v>
       </c>
       <c r="G110" s="27" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="H110" s="27" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
@@ -7272,7 +7301,7 @@
     </row>
     <row r="111" spans="1:26" ht="15.75" customHeight="1">
       <c r="A111" s="27" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B111" s="27" t="s">
         <v>345</v>
@@ -7290,7 +7319,7 @@
         <v>306</v>
       </c>
       <c r="G111" s="27" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="H111" s="27" t="s">
         <v>146</v>
@@ -7316,16 +7345,16 @@
     </row>
     <row r="112" spans="1:26" ht="15.75" customHeight="1">
       <c r="A112" s="27" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B112" s="27" t="s">
-        <v>351</v>
-      </c>
-      <c r="C112" s="27">
-        <v>1999</v>
-      </c>
-      <c r="D112" s="29" t="s">
-        <v>352</v>
+        <v>345</v>
+      </c>
+      <c r="C112" s="28">
+        <v>2006</v>
+      </c>
+      <c r="D112" s="30" t="s">
+        <v>346</v>
       </c>
       <c r="E112" s="27" t="s">
         <v>170</v>
@@ -7334,7 +7363,7 @@
         <v>306</v>
       </c>
       <c r="G112" s="27" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="H112" s="27" t="s">
         <v>146</v>
@@ -7360,16 +7389,16 @@
     </row>
     <row r="113" spans="1:26" ht="15.75" customHeight="1">
       <c r="A113" s="27" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B113" s="27" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="C113" s="27">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="D113" s="29" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="E113" s="27" t="s">
         <v>170</v>
@@ -7378,7 +7407,7 @@
         <v>306</v>
       </c>
       <c r="G113" s="27" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H113" s="27" t="s">
         <v>146</v>
@@ -7404,16 +7433,16 @@
     </row>
     <row r="114" spans="1:26" ht="15.75" customHeight="1">
       <c r="A114" s="27" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B114" s="27" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="C114" s="27">
         <v>2000</v>
       </c>
       <c r="D114" s="29" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="E114" s="27" t="s">
         <v>170</v>
@@ -7422,7 +7451,7 @@
         <v>306</v>
       </c>
       <c r="G114" s="27" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H114" s="27" t="s">
         <v>146</v>
@@ -7448,7 +7477,7 @@
     </row>
     <row r="115" spans="1:26" ht="15.75" customHeight="1">
       <c r="A115" s="27" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B115" s="27" t="s">
         <v>357</v>
@@ -7492,16 +7521,16 @@
     </row>
     <row r="116" spans="1:26" ht="15.75" customHeight="1">
       <c r="A116" s="27" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B116" s="27" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C116" s="27">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="D116" s="29" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="E116" s="27" t="s">
         <v>170</v>
@@ -7510,7 +7539,7 @@
         <v>306</v>
       </c>
       <c r="G116" s="27" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H116" s="27" t="s">
         <v>146</v>
@@ -7536,16 +7565,16 @@
     </row>
     <row r="117" spans="1:26" ht="15.75" customHeight="1">
       <c r="A117" s="27" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B117" s="27" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C117" s="27">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="D117" s="29" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="E117" s="27" t="s">
         <v>170</v>
@@ -7554,7 +7583,7 @@
         <v>306</v>
       </c>
       <c r="G117" s="27" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="H117" s="27" t="s">
         <v>146</v>
@@ -7580,16 +7609,16 @@
     </row>
     <row r="118" spans="1:26" ht="15.75" customHeight="1">
       <c r="A118" s="27" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B118" s="27" t="s">
-        <v>313</v>
+        <v>366</v>
       </c>
       <c r="C118" s="27">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="D118" s="29" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E118" s="27" t="s">
         <v>170</v>
@@ -7598,7 +7627,7 @@
         <v>306</v>
       </c>
       <c r="G118" s="27" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="H118" s="27" t="s">
         <v>146</v>
@@ -7624,16 +7653,16 @@
     </row>
     <row r="119" spans="1:26" ht="15.75" customHeight="1">
       <c r="A119" s="27" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B119" s="27" t="s">
-        <v>373</v>
+        <v>313</v>
       </c>
       <c r="C119" s="27">
-        <v>2001</v>
+        <v>1996</v>
       </c>
       <c r="D119" s="29" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E119" s="27" t="s">
         <v>170</v>
@@ -7642,7 +7671,7 @@
         <v>306</v>
       </c>
       <c r="G119" s="27" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="H119" s="27" t="s">
         <v>146</v>
@@ -7668,16 +7697,16 @@
     </row>
     <row r="120" spans="1:26" ht="15.75" customHeight="1">
       <c r="A120" s="27" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B120" s="27" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C120" s="27">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="D120" s="29" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E120" s="27" t="s">
         <v>170</v>
@@ -7686,7 +7715,7 @@
         <v>306</v>
       </c>
       <c r="G120" s="27" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H120" s="27" t="s">
         <v>146</v>
@@ -7712,16 +7741,16 @@
     </row>
     <row r="121" spans="1:26" ht="15.75" customHeight="1">
       <c r="A121" s="27" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B121" s="27" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C121" s="27">
-        <v>2000</v>
+        <v>2007</v>
       </c>
       <c r="D121" s="29" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E121" s="27" t="s">
         <v>170</v>
@@ -7730,7 +7759,7 @@
         <v>306</v>
       </c>
       <c r="G121" s="27" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="H121" s="27" t="s">
         <v>146</v>
@@ -7756,16 +7785,16 @@
     </row>
     <row r="122" spans="1:26" ht="15.75" customHeight="1">
       <c r="A122" s="27" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B122" s="27" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C122" s="27">
-        <v>2009</v>
+        <v>2000</v>
       </c>
       <c r="D122" s="29" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E122" s="27" t="s">
         <v>170</v>
@@ -7774,7 +7803,7 @@
         <v>306</v>
       </c>
       <c r="G122" s="27" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H122" s="27" t="s">
         <v>146</v>
@@ -7800,16 +7829,16 @@
     </row>
     <row r="123" spans="1:26" ht="15.75" customHeight="1">
       <c r="A123" s="27" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B123" s="27" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C123" s="27">
-        <v>1994</v>
+        <v>2009</v>
       </c>
       <c r="D123" s="29" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E123" s="27" t="s">
         <v>170</v>
@@ -7818,7 +7847,7 @@
         <v>306</v>
       </c>
       <c r="G123" s="27" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="H123" s="27" t="s">
         <v>146</v>
@@ -7844,16 +7873,16 @@
     </row>
     <row r="124" spans="1:26" ht="15.75" customHeight="1">
       <c r="A124" s="27" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B124" s="27" t="s">
-        <v>351</v>
+        <v>389</v>
       </c>
       <c r="C124" s="27">
-        <v>2003</v>
+        <v>1994</v>
       </c>
       <c r="D124" s="29" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E124" s="27" t="s">
         <v>170</v>
@@ -7862,7 +7891,7 @@
         <v>306</v>
       </c>
       <c r="G124" s="27" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="H124" s="27" t="s">
         <v>146</v>
@@ -7888,7 +7917,7 @@
     </row>
     <row r="125" spans="1:26" ht="15.75" customHeight="1">
       <c r="A125" s="27" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B125" s="27" t="s">
         <v>351</v>
@@ -7906,7 +7935,7 @@
         <v>306</v>
       </c>
       <c r="G125" s="27" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H125" s="27" t="s">
         <v>146</v>
@@ -7932,23 +7961,25 @@
     </row>
     <row r="126" spans="1:26" ht="15.75" customHeight="1">
       <c r="A126" s="27" t="s">
-        <v>397</v>
-      </c>
-      <c r="B126" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="C126" s="28">
-        <v>2012</v>
-      </c>
-      <c r="D126" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="E126" s="28"/>
-      <c r="F126" s="28" t="s">
-        <v>139</v>
+        <v>395</v>
+      </c>
+      <c r="B126" s="27" t="s">
+        <v>351</v>
+      </c>
+      <c r="C126" s="27">
+        <v>2003</v>
+      </c>
+      <c r="D126" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="E126" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="F126" s="27" t="s">
+        <v>306</v>
       </c>
       <c r="G126" s="27" t="s">
-        <v>160</v>
+        <v>396</v>
       </c>
       <c r="H126" s="27" t="s">
         <v>146</v>
@@ -7973,28 +8004,26 @@
       <c r="Z126" s="3"/>
     </row>
     <row r="127" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A127" s="28" t="s">
-        <v>398</v>
+      <c r="A127" s="27" t="s">
+        <v>397</v>
       </c>
       <c r="B127" s="28" t="s">
-        <v>399</v>
+        <v>159</v>
       </c>
       <c r="C127" s="28">
-        <v>1998</v>
-      </c>
-      <c r="D127" s="29" t="s">
-        <v>400</v>
-      </c>
-      <c r="E127" s="28" t="s">
-        <v>170</v>
-      </c>
+        <v>2012</v>
+      </c>
+      <c r="D127" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E127" s="28"/>
       <c r="F127" s="28" t="s">
-        <v>306</v>
+        <v>139</v>
       </c>
       <c r="G127" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="H127" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="H127" s="27" t="s">
         <v>146</v>
       </c>
       <c r="I127" s="3"/>
@@ -8018,7 +8047,7 @@
     </row>
     <row r="128" spans="1:26" ht="15.75" customHeight="1">
       <c r="A128" s="28" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B128" s="28" t="s">
         <v>399</v>
@@ -8035,8 +8064,8 @@
       <c r="F128" s="28" t="s">
         <v>306</v>
       </c>
-      <c r="G128" s="28" t="s">
-        <v>403</v>
+      <c r="G128" s="27" t="s">
+        <v>401</v>
       </c>
       <c r="H128" s="28" t="s">
         <v>146</v>
@@ -8062,16 +8091,16 @@
     </row>
     <row r="129" spans="1:26" ht="15.75" customHeight="1">
       <c r="A129" s="28" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B129" s="28" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C129" s="28">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="D129" s="29" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="E129" s="28" t="s">
         <v>170</v>
@@ -8080,7 +8109,7 @@
         <v>306</v>
       </c>
       <c r="G129" s="28" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="H129" s="28" t="s">
         <v>146</v>
@@ -8106,16 +8135,16 @@
     </row>
     <row r="130" spans="1:26" ht="15.75" customHeight="1">
       <c r="A130" s="28" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B130" s="28" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C130" s="28">
-        <v>2008</v>
+        <v>2000</v>
       </c>
       <c r="D130" s="29" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E130" s="28" t="s">
         <v>170</v>
@@ -8124,7 +8153,7 @@
         <v>306</v>
       </c>
       <c r="G130" s="28" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H130" s="28" t="s">
         <v>146</v>
@@ -8150,7 +8179,7 @@
     </row>
     <row r="131" spans="1:26" ht="15.75" customHeight="1">
       <c r="A131" s="28" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B131" s="28" t="s">
         <v>409</v>
@@ -8168,7 +8197,7 @@
         <v>306</v>
       </c>
       <c r="G131" s="28" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H131" s="28" t="s">
         <v>146</v>
@@ -8194,7 +8223,7 @@
     </row>
     <row r="132" spans="1:26" ht="15.75" customHeight="1">
       <c r="A132" s="28" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B132" s="28" t="s">
         <v>409</v>
@@ -8238,7 +8267,7 @@
     </row>
     <row r="133" spans="1:26" ht="15.75" customHeight="1">
       <c r="A133" s="28" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B133" s="28" t="s">
         <v>409</v>
@@ -8282,16 +8311,16 @@
     </row>
     <row r="134" spans="1:26" ht="15.75" customHeight="1">
       <c r="A134" s="28" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B134" s="28" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="C134" s="28">
-        <v>1998</v>
+        <v>2008</v>
       </c>
       <c r="D134" s="29" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E134" s="28" t="s">
         <v>170</v>
@@ -8300,7 +8329,7 @@
         <v>306</v>
       </c>
       <c r="G134" s="28" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="H134" s="28" t="s">
         <v>146</v>
@@ -8326,16 +8355,16 @@
     </row>
     <row r="135" spans="1:26" ht="15.75" customHeight="1">
       <c r="A135" s="28" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B135" s="28" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="C135" s="28">
-        <v>2008</v>
+        <v>1998</v>
       </c>
       <c r="D135" s="29" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="E135" s="28" t="s">
         <v>170</v>
@@ -8344,7 +8373,7 @@
         <v>306</v>
       </c>
       <c r="G135" s="28" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="H135" s="28" t="s">
         <v>146</v>
@@ -8370,7 +8399,7 @@
     </row>
     <row r="136" spans="1:26" ht="15.75" customHeight="1">
       <c r="A136" s="28" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B136" s="28" t="s">
         <v>409</v>
@@ -8388,7 +8417,7 @@
         <v>306</v>
       </c>
       <c r="G136" s="28" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H136" s="28" t="s">
         <v>146</v>
@@ -8414,7 +8443,7 @@
     </row>
     <row r="137" spans="1:26" ht="15.75" customHeight="1">
       <c r="A137" s="28" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B137" s="28" t="s">
         <v>409</v>
@@ -8458,7 +8487,7 @@
     </row>
     <row r="138" spans="1:26" ht="15.75" customHeight="1">
       <c r="A138" s="28" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B138" s="28" t="s">
         <v>409</v>
@@ -8502,16 +8531,16 @@
     </row>
     <row r="139" spans="1:26" ht="15.75" customHeight="1">
       <c r="A139" s="28" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B139" s="28" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="C139" s="28">
-        <v>1998</v>
+        <v>2008</v>
       </c>
       <c r="D139" s="29" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E139" s="28" t="s">
         <v>170</v>
@@ -8520,7 +8549,7 @@
         <v>306</v>
       </c>
       <c r="G139" s="28" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="H139" s="28" t="s">
         <v>146</v>
@@ -8545,28 +8574,28 @@
       <c r="Z139" s="3"/>
     </row>
     <row r="140" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A140" s="27" t="s">
-        <v>425</v>
-      </c>
-      <c r="B140" s="27" t="s">
-        <v>426</v>
-      </c>
-      <c r="C140" s="27">
-        <v>2002</v>
+      <c r="A140" s="28" t="s">
+        <v>424</v>
+      </c>
+      <c r="B140" s="28" t="s">
+        <v>417</v>
+      </c>
+      <c r="C140" s="28">
+        <v>1998</v>
       </c>
       <c r="D140" s="29" t="s">
-        <v>427</v>
-      </c>
-      <c r="E140" s="27" t="s">
+        <v>418</v>
+      </c>
+      <c r="E140" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="F140" s="27" t="s">
+      <c r="F140" s="28" t="s">
         <v>306</v>
       </c>
-      <c r="G140" s="27" t="s">
-        <v>428</v>
-      </c>
-      <c r="H140" s="27" t="s">
+      <c r="G140" s="28" t="s">
+        <v>419</v>
+      </c>
+      <c r="H140" s="28" t="s">
         <v>146</v>
       </c>
       <c r="I140" s="3"/>
@@ -8590,7 +8619,7 @@
     </row>
     <row r="141" spans="1:26" ht="15.75" customHeight="1">
       <c r="A141" s="27" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B141" s="27" t="s">
         <v>426</v>
@@ -8608,7 +8637,7 @@
         <v>306</v>
       </c>
       <c r="G141" s="27" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H141" s="27" t="s">
         <v>146</v>
@@ -8634,7 +8663,7 @@
     </row>
     <row r="142" spans="1:26" ht="15.75" customHeight="1">
       <c r="A142" s="27" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B142" s="27" t="s">
         <v>426</v>
@@ -8652,7 +8681,7 @@
         <v>306</v>
       </c>
       <c r="G142" s="27" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H142" s="27" t="s">
         <v>146</v>
@@ -8678,7 +8707,7 @@
     </row>
     <row r="143" spans="1:26" ht="15.75" customHeight="1">
       <c r="A143" s="27" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B143" s="27" t="s">
         <v>426</v>
@@ -8696,7 +8725,7 @@
         <v>306</v>
       </c>
       <c r="G143" s="27" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H143" s="27" t="s">
         <v>146</v>
@@ -8722,7 +8751,7 @@
     </row>
     <row r="144" spans="1:26" ht="15.75" customHeight="1">
       <c r="A144" s="27" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B144" s="27" t="s">
         <v>426</v>
@@ -8730,7 +8759,7 @@
       <c r="C144" s="27">
         <v>2002</v>
       </c>
-      <c r="D144" s="27" t="s">
+      <c r="D144" s="29" t="s">
         <v>427</v>
       </c>
       <c r="E144" s="27" t="s">
@@ -8740,7 +8769,7 @@
         <v>306</v>
       </c>
       <c r="G144" s="27" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H144" s="27" t="s">
         <v>146</v>
@@ -8765,28 +8794,28 @@
       <c r="Z144" s="3"/>
     </row>
     <row r="145" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A145" s="28" t="s">
-        <v>437</v>
-      </c>
-      <c r="B145" s="28" t="s">
-        <v>438</v>
-      </c>
-      <c r="C145" s="28">
-        <v>2009</v>
-      </c>
-      <c r="D145" s="29" t="s">
-        <v>439</v>
-      </c>
-      <c r="E145" s="28" t="s">
+      <c r="A145" s="27" t="s">
+        <v>435</v>
+      </c>
+      <c r="B145" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="C145" s="27">
+        <v>2002</v>
+      </c>
+      <c r="D145" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="E145" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="F145" s="28" t="s">
+      <c r="F145" s="27" t="s">
         <v>306</v>
       </c>
       <c r="G145" s="27" t="s">
-        <v>440</v>
-      </c>
-      <c r="H145" s="28" t="s">
+        <v>436</v>
+      </c>
+      <c r="H145" s="27" t="s">
         <v>146</v>
       </c>
       <c r="I145" s="3"/>
@@ -8810,7 +8839,7 @@
     </row>
     <row r="146" spans="1:26" ht="15.75" customHeight="1">
       <c r="A146" s="28" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B146" s="28" t="s">
         <v>438</v>
@@ -8827,8 +8856,8 @@
       <c r="F146" s="28" t="s">
         <v>306</v>
       </c>
-      <c r="G146" s="28" t="s">
-        <v>442</v>
+      <c r="G146" s="27" t="s">
+        <v>440</v>
       </c>
       <c r="H146" s="28" t="s">
         <v>146</v>
@@ -8853,28 +8882,28 @@
       <c r="Z146" s="3"/>
     </row>
     <row r="147" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A147" s="27" t="s">
-        <v>443</v>
-      </c>
-      <c r="B147" s="27" t="s">
-        <v>444</v>
-      </c>
-      <c r="C147" s="27">
-        <v>2001</v>
+      <c r="A147" s="28" t="s">
+        <v>441</v>
+      </c>
+      <c r="B147" s="28" t="s">
+        <v>438</v>
+      </c>
+      <c r="C147" s="28">
+        <v>2009</v>
       </c>
       <c r="D147" s="29" t="s">
-        <v>445</v>
-      </c>
-      <c r="E147" s="27" t="s">
+        <v>439</v>
+      </c>
+      <c r="E147" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="F147" s="27" t="s">
+      <c r="F147" s="28" t="s">
         <v>306</v>
       </c>
-      <c r="G147" s="27" t="s">
-        <v>446</v>
-      </c>
-      <c r="H147" s="27" t="s">
+      <c r="G147" s="28" t="s">
+        <v>442</v>
+      </c>
+      <c r="H147" s="28" t="s">
         <v>146</v>
       </c>
       <c r="I147" s="3"/>
@@ -8897,28 +8926,28 @@
       <c r="Z147" s="3"/>
     </row>
     <row r="148" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A148" s="28" t="s">
-        <v>447</v>
-      </c>
-      <c r="B148" s="28" t="s">
-        <v>448</v>
-      </c>
-      <c r="C148" s="28">
-        <v>1995</v>
-      </c>
-      <c r="D148" s="27" t="s">
-        <v>449</v>
-      </c>
-      <c r="E148" s="28" t="s">
+      <c r="A148" s="27" t="s">
+        <v>443</v>
+      </c>
+      <c r="B148" s="27" t="s">
+        <v>444</v>
+      </c>
+      <c r="C148" s="27">
+        <v>2001</v>
+      </c>
+      <c r="D148" s="29" t="s">
+        <v>445</v>
+      </c>
+      <c r="E148" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="F148" s="28" t="s">
+      <c r="F148" s="27" t="s">
         <v>306</v>
       </c>
-      <c r="G148" s="28" t="s">
-        <v>450</v>
-      </c>
-      <c r="H148" s="28" t="s">
+      <c r="G148" s="27" t="s">
+        <v>446</v>
+      </c>
+      <c r="H148" s="27" t="s">
         <v>146</v>
       </c>
       <c r="I148" s="3"/>
@@ -8942,16 +8971,16 @@
     </row>
     <row r="149" spans="1:26" ht="15.75" customHeight="1">
       <c r="A149" s="28" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B149" s="28" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C149" s="28">
-        <v>2004</v>
-      </c>
-      <c r="D149" s="29" t="s">
-        <v>453</v>
+        <v>1995</v>
+      </c>
+      <c r="D149" s="27" t="s">
+        <v>449</v>
       </c>
       <c r="E149" s="28" t="s">
         <v>170</v>
@@ -8960,7 +8989,7 @@
         <v>306</v>
       </c>
       <c r="G149" s="28" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="H149" s="28" t="s">
         <v>146</v>
@@ -8986,16 +9015,16 @@
     </row>
     <row r="150" spans="1:26" ht="15.75" customHeight="1">
       <c r="A150" s="28" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B150" s="28" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C150" s="28">
-        <v>1989</v>
+        <v>2004</v>
       </c>
       <c r="D150" s="29" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E150" s="28" t="s">
         <v>170</v>
@@ -9004,7 +9033,7 @@
         <v>306</v>
       </c>
       <c r="G150" s="28" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="H150" s="28" t="s">
         <v>146</v>
@@ -9029,28 +9058,28 @@
       <c r="Z150" s="3"/>
     </row>
     <row r="151" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A151" s="27" t="s">
-        <v>459</v>
-      </c>
-      <c r="B151" s="27" t="s">
-        <v>460</v>
-      </c>
-      <c r="C151" s="27">
-        <v>2005</v>
+      <c r="A151" s="28" t="s">
+        <v>455</v>
+      </c>
+      <c r="B151" s="28" t="s">
+        <v>456</v>
+      </c>
+      <c r="C151" s="28">
+        <v>1989</v>
       </c>
       <c r="D151" s="29" t="s">
-        <v>461</v>
-      </c>
-      <c r="E151" s="27" t="s">
+        <v>457</v>
+      </c>
+      <c r="E151" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="F151" s="27" t="s">
+      <c r="F151" s="28" t="s">
         <v>306</v>
       </c>
-      <c r="G151" s="27" t="s">
-        <v>462</v>
-      </c>
-      <c r="H151" s="27" t="s">
+      <c r="G151" s="28" t="s">
+        <v>458</v>
+      </c>
+      <c r="H151" s="28" t="s">
         <v>146</v>
       </c>
       <c r="I151" s="3"/>
@@ -9074,28 +9103,28 @@
     </row>
     <row r="152" spans="1:26" ht="15.75" customHeight="1">
       <c r="A152" s="27" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B152" s="27" t="s">
-        <v>464</v>
-      </c>
-      <c r="C152" s="27" t="s">
-        <v>465</v>
-      </c>
-      <c r="D152" s="27" t="s">
-        <v>466</v>
+        <v>460</v>
+      </c>
+      <c r="C152" s="27">
+        <v>2005</v>
+      </c>
+      <c r="D152" s="29" t="s">
+        <v>461</v>
       </c>
       <c r="E152" s="27" t="s">
-        <v>467</v>
+        <v>170</v>
       </c>
       <c r="F152" s="27" t="s">
-        <v>139</v>
+        <v>306</v>
       </c>
       <c r="G152" s="27" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="H152" s="27" t="s">
-        <v>469</v>
+        <v>146</v>
       </c>
       <c r="I152" s="3"/>
       <c r="J152" s="3"/>
@@ -9118,28 +9147,28 @@
     </row>
     <row r="153" spans="1:26" ht="15.75" customHeight="1">
       <c r="A153" s="27" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="B153" s="27" t="s">
-        <v>417</v>
-      </c>
-      <c r="C153" s="27">
-        <v>2004</v>
+        <v>464</v>
+      </c>
+      <c r="C153" s="27" t="s">
+        <v>465</v>
       </c>
       <c r="D153" s="27" t="s">
-        <v>471</v>
-      </c>
-      <c r="E153" s="28" t="s">
-        <v>472</v>
+        <v>466</v>
+      </c>
+      <c r="E153" s="27" t="s">
+        <v>467</v>
       </c>
       <c r="F153" s="27" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="G153" s="27" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="H153" s="27" t="s">
-        <v>166</v>
+        <v>469</v>
       </c>
       <c r="I153" s="3"/>
       <c r="J153" s="3"/>
@@ -9162,28 +9191,28 @@
     </row>
     <row r="154" spans="1:26" ht="15.75" customHeight="1">
       <c r="A154" s="27" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B154" s="27" t="s">
-        <v>475</v>
+        <v>417</v>
       </c>
       <c r="C154" s="27">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="D154" s="27" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="E154" s="28" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="F154" s="27" t="s">
-        <v>195</v>
+        <v>103</v>
       </c>
       <c r="G154" s="27" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="H154" s="27" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="I154" s="3"/>
       <c r="J154" s="3"/>
@@ -9205,28 +9234,28 @@
       <c r="Z154" s="3"/>
     </row>
     <row r="155" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A155" s="28" t="s">
-        <v>479</v>
-      </c>
-      <c r="B155" s="28" t="s">
-        <v>480</v>
-      </c>
-      <c r="C155" s="28">
-        <v>1999</v>
-      </c>
-      <c r="D155" s="29" t="s">
-        <v>481</v>
+      <c r="A155" s="27" t="s">
+        <v>474</v>
+      </c>
+      <c r="B155" s="27" t="s">
+        <v>475</v>
+      </c>
+      <c r="C155" s="27">
+        <v>2009</v>
+      </c>
+      <c r="D155" s="27" t="s">
+        <v>476</v>
       </c>
       <c r="E155" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="F155" s="28" t="s">
-        <v>306</v>
-      </c>
-      <c r="G155" s="28" t="s">
-        <v>482</v>
-      </c>
-      <c r="H155" s="28" t="s">
+        <v>477</v>
+      </c>
+      <c r="F155" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="G155" s="27" t="s">
+        <v>478</v>
+      </c>
+      <c r="H155" s="27" t="s">
         <v>146</v>
       </c>
       <c r="I155" s="3"/>
@@ -9249,28 +9278,28 @@
       <c r="Z155" s="3"/>
     </row>
     <row r="156" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A156" s="27" t="s">
-        <v>483</v>
-      </c>
-      <c r="B156" s="27" t="s">
-        <v>484</v>
-      </c>
-      <c r="C156" s="27">
-        <v>2013</v>
-      </c>
-      <c r="D156" s="27" t="s">
-        <v>485</v>
-      </c>
-      <c r="E156" s="31" t="s">
-        <v>486</v>
-      </c>
-      <c r="F156" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="G156" s="27" t="s">
-        <v>478</v>
-      </c>
-      <c r="H156" s="27" t="s">
+      <c r="A156" s="28" t="s">
+        <v>479</v>
+      </c>
+      <c r="B156" s="28" t="s">
+        <v>480</v>
+      </c>
+      <c r="C156" s="28">
+        <v>1999</v>
+      </c>
+      <c r="D156" s="29" t="s">
+        <v>481</v>
+      </c>
+      <c r="E156" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="F156" s="28" t="s">
+        <v>306</v>
+      </c>
+      <c r="G156" s="28" t="s">
+        <v>482</v>
+      </c>
+      <c r="H156" s="28" t="s">
         <v>146</v>
       </c>
       <c r="I156" s="3"/>
@@ -9294,28 +9323,28 @@
     </row>
     <row r="157" spans="1:26" ht="15.75" customHeight="1">
       <c r="A157" s="27" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B157" s="27" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C157" s="27">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="D157" s="27" t="s">
-        <v>489</v>
-      </c>
-      <c r="E157" s="28" t="s">
-        <v>490</v>
+        <v>485</v>
+      </c>
+      <c r="E157" s="31" t="s">
+        <v>486</v>
       </c>
       <c r="F157" s="27" t="s">
-        <v>103</v>
+        <v>195</v>
       </c>
       <c r="G157" s="27" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="H157" s="27" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="I157" s="3"/>
       <c r="J157" s="3"/>
@@ -9338,28 +9367,28 @@
     </row>
     <row r="158" spans="1:26" ht="15.75" customHeight="1">
       <c r="A158" s="27" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B158" s="27" t="s">
-        <v>426</v>
+        <v>488</v>
       </c>
       <c r="C158" s="27">
-        <v>2002</v>
-      </c>
-      <c r="D158" s="29" t="s">
-        <v>427</v>
-      </c>
-      <c r="E158" s="27" t="s">
-        <v>170</v>
+        <v>2011</v>
+      </c>
+      <c r="D158" s="27" t="s">
+        <v>489</v>
+      </c>
+      <c r="E158" s="28" t="s">
+        <v>490</v>
       </c>
       <c r="F158" s="27" t="s">
-        <v>306</v>
+        <v>103</v>
       </c>
       <c r="G158" s="27" t="s">
-        <v>428</v>
+        <v>491</v>
       </c>
       <c r="H158" s="27" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="I158" s="3"/>
       <c r="J158" s="3"/>
@@ -9382,7 +9411,7 @@
     </row>
     <row r="159" spans="1:26" ht="15.75" customHeight="1">
       <c r="A159" s="27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B159" s="27" t="s">
         <v>426</v>
@@ -9400,7 +9429,7 @@
         <v>306</v>
       </c>
       <c r="G159" s="27" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H159" s="27" t="s">
         <v>146</v>
@@ -9426,7 +9455,7 @@
     </row>
     <row r="160" spans="1:26" ht="15.75" customHeight="1">
       <c r="A160" s="27" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B160" s="27" t="s">
         <v>426</v>
@@ -9444,7 +9473,7 @@
         <v>306</v>
       </c>
       <c r="G160" s="27" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H160" s="27" t="s">
         <v>146</v>
@@ -9470,7 +9499,7 @@
     </row>
     <row r="161" spans="1:26" ht="15.75" customHeight="1">
       <c r="A161" s="27" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B161" s="27" t="s">
         <v>426</v>
@@ -9488,7 +9517,7 @@
         <v>306</v>
       </c>
       <c r="G161" s="27" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H161" s="27" t="s">
         <v>146</v>
@@ -9514,7 +9543,7 @@
     </row>
     <row r="162" spans="1:26" ht="15.75" customHeight="1">
       <c r="A162" s="27" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B162" s="27" t="s">
         <v>426</v>
@@ -9522,7 +9551,7 @@
       <c r="C162" s="27">
         <v>2002</v>
       </c>
-      <c r="D162" s="27" t="s">
+      <c r="D162" s="29" t="s">
         <v>427</v>
       </c>
       <c r="E162" s="27" t="s">
@@ -9532,7 +9561,7 @@
         <v>306</v>
       </c>
       <c r="G162" s="27" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H162" s="27" t="s">
         <v>146</v>
@@ -9557,28 +9586,28 @@
       <c r="Z162" s="3"/>
     </row>
     <row r="163" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A163" s="28" t="s">
-        <v>497</v>
-      </c>
-      <c r="B163" s="28" t="s">
-        <v>438</v>
-      </c>
-      <c r="C163" s="28">
-        <v>2009</v>
-      </c>
-      <c r="D163" s="29" t="s">
-        <v>439</v>
-      </c>
-      <c r="E163" s="28" t="s">
+      <c r="A163" s="27" t="s">
+        <v>496</v>
+      </c>
+      <c r="B163" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="C163" s="27">
+        <v>2002</v>
+      </c>
+      <c r="D163" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="E163" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="F163" s="28" t="s">
+      <c r="F163" s="27" t="s">
         <v>306</v>
       </c>
       <c r="G163" s="27" t="s">
-        <v>440</v>
-      </c>
-      <c r="H163" s="28" t="s">
+        <v>436</v>
+      </c>
+      <c r="H163" s="27" t="s">
         <v>146</v>
       </c>
       <c r="I163" s="3"/>
@@ -9602,7 +9631,7 @@
     </row>
     <row r="164" spans="1:26" ht="15.75" customHeight="1">
       <c r="A164" s="28" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B164" s="28" t="s">
         <v>438</v>
@@ -9619,8 +9648,8 @@
       <c r="F164" s="28" t="s">
         <v>306</v>
       </c>
-      <c r="G164" s="28" t="s">
-        <v>442</v>
+      <c r="G164" s="27" t="s">
+        <v>440</v>
       </c>
       <c r="H164" s="28" t="s">
         <v>146</v>
@@ -9645,28 +9674,28 @@
       <c r="Z164" s="3"/>
     </row>
     <row r="165" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A165" s="27" t="s">
-        <v>499</v>
-      </c>
-      <c r="B165" s="27" t="s">
-        <v>444</v>
-      </c>
-      <c r="C165" s="27">
-        <v>2001</v>
+      <c r="A165" s="28" t="s">
+        <v>498</v>
+      </c>
+      <c r="B165" s="28" t="s">
+        <v>438</v>
+      </c>
+      <c r="C165" s="28">
+        <v>2009</v>
       </c>
       <c r="D165" s="29" t="s">
-        <v>445</v>
-      </c>
-      <c r="E165" s="27" t="s">
+        <v>439</v>
+      </c>
+      <c r="E165" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="F165" s="27" t="s">
+      <c r="F165" s="28" t="s">
         <v>306</v>
       </c>
-      <c r="G165" s="27" t="s">
-        <v>446</v>
-      </c>
-      <c r="H165" s="27" t="s">
+      <c r="G165" s="28" t="s">
+        <v>442</v>
+      </c>
+      <c r="H165" s="28" t="s">
         <v>146</v>
       </c>
       <c r="I165" s="3"/>
@@ -9689,28 +9718,28 @@
       <c r="Z165" s="3"/>
     </row>
     <row r="166" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A166" s="28" t="s">
-        <v>500</v>
-      </c>
-      <c r="B166" s="28" t="s">
-        <v>448</v>
-      </c>
-      <c r="C166" s="28">
-        <v>1995</v>
-      </c>
-      <c r="D166" s="27" t="s">
-        <v>449</v>
-      </c>
-      <c r="E166" s="28" t="s">
+      <c r="A166" s="27" t="s">
+        <v>499</v>
+      </c>
+      <c r="B166" s="27" t="s">
+        <v>444</v>
+      </c>
+      <c r="C166" s="27">
+        <v>2001</v>
+      </c>
+      <c r="D166" s="29" t="s">
+        <v>445</v>
+      </c>
+      <c r="E166" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="F166" s="28" t="s">
+      <c r="F166" s="27" t="s">
         <v>306</v>
       </c>
-      <c r="G166" s="28" t="s">
-        <v>450</v>
-      </c>
-      <c r="H166" s="28" t="s">
+      <c r="G166" s="27" t="s">
+        <v>446</v>
+      </c>
+      <c r="H166" s="27" t="s">
         <v>146</v>
       </c>
       <c r="I166" s="3"/>
@@ -9734,16 +9763,16 @@
     </row>
     <row r="167" spans="1:26" ht="15.75" customHeight="1">
       <c r="A167" s="28" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B167" s="28" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C167" s="28">
-        <v>2004</v>
-      </c>
-      <c r="D167" s="29" t="s">
-        <v>453</v>
+        <v>1995</v>
+      </c>
+      <c r="D167" s="27" t="s">
+        <v>449</v>
       </c>
       <c r="E167" s="28" t="s">
         <v>170</v>
@@ -9752,7 +9781,7 @@
         <v>306</v>
       </c>
       <c r="G167" s="28" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="H167" s="28" t="s">
         <v>146</v>
@@ -9778,16 +9807,16 @@
     </row>
     <row r="168" spans="1:26" ht="15.75" customHeight="1">
       <c r="A168" s="28" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B168" s="28" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C168" s="28">
-        <v>1989</v>
+        <v>2004</v>
       </c>
       <c r="D168" s="29" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E168" s="28" t="s">
         <v>170</v>
@@ -9796,7 +9825,7 @@
         <v>306</v>
       </c>
       <c r="G168" s="28" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="H168" s="28" t="s">
         <v>146</v>
@@ -9821,28 +9850,28 @@
       <c r="Z168" s="3"/>
     </row>
     <row r="169" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A169" s="27" t="s">
-        <v>503</v>
-      </c>
-      <c r="B169" s="27" t="s">
-        <v>460</v>
-      </c>
-      <c r="C169" s="27">
-        <v>2005</v>
+      <c r="A169" s="28" t="s">
+        <v>502</v>
+      </c>
+      <c r="B169" s="28" t="s">
+        <v>456</v>
+      </c>
+      <c r="C169" s="28">
+        <v>1989</v>
       </c>
       <c r="D169" s="29" t="s">
-        <v>461</v>
-      </c>
-      <c r="E169" s="27" t="s">
+        <v>457</v>
+      </c>
+      <c r="E169" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="F169" s="27" t="s">
+      <c r="F169" s="28" t="s">
         <v>306</v>
       </c>
-      <c r="G169" s="27" t="s">
-        <v>462</v>
-      </c>
-      <c r="H169" s="27" t="s">
+      <c r="G169" s="28" t="s">
+        <v>458</v>
+      </c>
+      <c r="H169" s="28" t="s">
         <v>146</v>
       </c>
       <c r="I169" s="3"/>
@@ -9866,28 +9895,28 @@
     </row>
     <row r="170" spans="1:26" ht="15.75" customHeight="1">
       <c r="A170" s="27" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B170" s="27" t="s">
-        <v>464</v>
-      </c>
-      <c r="C170" s="27" t="s">
-        <v>465</v>
-      </c>
-      <c r="D170" s="27" t="s">
-        <v>466</v>
+        <v>460</v>
+      </c>
+      <c r="C170" s="27">
+        <v>2005</v>
+      </c>
+      <c r="D170" s="29" t="s">
+        <v>461</v>
       </c>
       <c r="E170" s="27" t="s">
-        <v>467</v>
+        <v>170</v>
       </c>
       <c r="F170" s="27" t="s">
-        <v>139</v>
+        <v>306</v>
       </c>
       <c r="G170" s="27" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="H170" s="27" t="s">
-        <v>469</v>
+        <v>146</v>
       </c>
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
@@ -9910,28 +9939,28 @@
     </row>
     <row r="171" spans="1:26" ht="15.75" customHeight="1">
       <c r="A171" s="27" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B171" s="27" t="s">
-        <v>417</v>
-      </c>
-      <c r="C171" s="27">
-        <v>2004</v>
+        <v>464</v>
+      </c>
+      <c r="C171" s="27" t="s">
+        <v>465</v>
       </c>
       <c r="D171" s="27" t="s">
-        <v>471</v>
-      </c>
-      <c r="E171" s="28" t="s">
-        <v>472</v>
+        <v>466</v>
+      </c>
+      <c r="E171" s="27" t="s">
+        <v>467</v>
       </c>
       <c r="F171" s="27" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="G171" s="27" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="H171" s="27" t="s">
-        <v>166</v>
+        <v>469</v>
       </c>
       <c r="I171" s="3"/>
       <c r="J171" s="3"/>
@@ -9953,29 +9982,29 @@
       <c r="Z171" s="3"/>
     </row>
     <row r="172" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A172" s="28" t="s">
-        <v>506</v>
-      </c>
-      <c r="B172" s="28" t="s">
-        <v>507</v>
-      </c>
-      <c r="C172" s="28">
-        <v>2000</v>
-      </c>
-      <c r="D172" s="29" t="s">
-        <v>508</v>
+      <c r="A172" s="27" t="s">
+        <v>505</v>
+      </c>
+      <c r="B172" s="27" t="s">
+        <v>417</v>
+      </c>
+      <c r="C172" s="27">
+        <v>2004</v>
+      </c>
+      <c r="D172" s="27" t="s">
+        <v>471</v>
       </c>
       <c r="E172" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="F172" s="28" t="s">
-        <v>306</v>
-      </c>
-      <c r="G172" s="28" t="s">
-        <v>509</v>
-      </c>
-      <c r="H172" s="28" t="s">
-        <v>146</v>
+        <v>472</v>
+      </c>
+      <c r="F172" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="G172" s="27" t="s">
+        <v>473</v>
+      </c>
+      <c r="H172" s="27" t="s">
+        <v>166</v>
       </c>
       <c r="I172" s="3"/>
       <c r="J172" s="3"/>
@@ -9998,16 +10027,16 @@
     </row>
     <row r="173" spans="1:26" ht="15.75" customHeight="1">
       <c r="A173" s="28" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B173" s="28" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C173" s="28">
-        <v>2009</v>
+        <v>2000</v>
       </c>
       <c r="D173" s="29" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E173" s="28" t="s">
         <v>170</v>
@@ -10016,7 +10045,7 @@
         <v>306</v>
       </c>
       <c r="G173" s="28" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="H173" s="28" t="s">
         <v>146</v>
@@ -10041,28 +10070,28 @@
       <c r="Z173" s="3"/>
     </row>
     <row r="174" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A174" s="27" t="s">
-        <v>514</v>
-      </c>
-      <c r="B174" s="27" t="s">
-        <v>515</v>
-      </c>
-      <c r="C174" s="27">
-        <v>2000</v>
+      <c r="A174" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="B174" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="C174" s="28">
+        <v>2009</v>
       </c>
       <c r="D174" s="29" t="s">
-        <v>516</v>
-      </c>
-      <c r="E174" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="E174" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="F174" s="27" t="s">
+      <c r="F174" s="28" t="s">
         <v>306</v>
       </c>
-      <c r="G174" s="27" t="s">
-        <v>419</v>
-      </c>
-      <c r="H174" s="27" t="s">
+      <c r="G174" s="28" t="s">
+        <v>513</v>
+      </c>
+      <c r="H174" s="28" t="s">
         <v>146</v>
       </c>
       <c r="I174" s="3"/>
@@ -10086,28 +10115,28 @@
     </row>
     <row r="175" spans="1:26" ht="15.75" customHeight="1">
       <c r="A175" s="27" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B175" s="27" t="s">
         <v>515</v>
       </c>
       <c r="C175" s="27">
-        <v>2002</v>
-      </c>
-      <c r="D175" s="27" t="s">
-        <v>518</v>
-      </c>
-      <c r="E175" s="28" t="s">
-        <v>519</v>
+        <v>2000</v>
+      </c>
+      <c r="D175" s="29" t="s">
+        <v>516</v>
+      </c>
+      <c r="E175" s="27" t="s">
+        <v>170</v>
       </c>
       <c r="F175" s="27" t="s">
-        <v>103</v>
+        <v>306</v>
       </c>
       <c r="G175" s="27" t="s">
-        <v>520</v>
+        <v>419</v>
       </c>
       <c r="H175" s="27" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="I175" s="3"/>
       <c r="J175" s="3"/>
@@ -10129,29 +10158,29 @@
       <c r="Z175" s="3"/>
     </row>
     <row r="176" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A176" s="28" t="s">
-        <v>521</v>
-      </c>
-      <c r="B176" s="28" t="s">
-        <v>522</v>
-      </c>
-      <c r="C176" s="28">
-        <v>2009</v>
-      </c>
-      <c r="D176" s="29" t="s">
-        <v>523</v>
+      <c r="A176" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="B176" s="27" t="s">
+        <v>515</v>
+      </c>
+      <c r="C176" s="27">
+        <v>2002</v>
+      </c>
+      <c r="D176" s="27" t="s">
+        <v>518</v>
       </c>
       <c r="E176" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="F176" s="28" t="s">
-        <v>306</v>
-      </c>
-      <c r="G176" s="28" t="s">
-        <v>524</v>
-      </c>
-      <c r="H176" s="28" t="s">
-        <v>146</v>
+        <v>519</v>
+      </c>
+      <c r="F176" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="G176" s="27" t="s">
+        <v>520</v>
+      </c>
+      <c r="H176" s="27" t="s">
+        <v>166</v>
       </c>
       <c r="I176" s="3"/>
       <c r="J176" s="3"/>
@@ -10173,28 +10202,28 @@
       <c r="Z176" s="3"/>
     </row>
     <row r="177" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A177" s="27" t="s">
-        <v>525</v>
-      </c>
-      <c r="B177" s="27" t="s">
-        <v>526</v>
-      </c>
-      <c r="C177" s="27">
-        <v>2005</v>
+      <c r="A177" s="28" t="s">
+        <v>521</v>
+      </c>
+      <c r="B177" s="28" t="s">
+        <v>522</v>
+      </c>
+      <c r="C177" s="28">
+        <v>2009</v>
       </c>
       <c r="D177" s="29" t="s">
-        <v>527</v>
-      </c>
-      <c r="E177" s="27" t="s">
+        <v>523</v>
+      </c>
+      <c r="E177" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="F177" s="27" t="s">
+      <c r="F177" s="28" t="s">
         <v>306</v>
       </c>
-      <c r="G177" s="27" t="s">
-        <v>528</v>
-      </c>
-      <c r="H177" s="27" t="s">
+      <c r="G177" s="28" t="s">
+        <v>524</v>
+      </c>
+      <c r="H177" s="28" t="s">
         <v>146</v>
       </c>
       <c r="I177" s="3"/>
@@ -10218,16 +10247,16 @@
     </row>
     <row r="178" spans="1:26" ht="15.75" customHeight="1">
       <c r="A178" s="27" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B178" s="27" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="C178" s="27">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="D178" s="29" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E178" s="27" t="s">
         <v>170</v>
@@ -10236,7 +10265,7 @@
         <v>306</v>
       </c>
       <c r="G178" s="27" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="H178" s="27" t="s">
         <v>146</v>
@@ -10262,7 +10291,7 @@
     </row>
     <row r="179" spans="1:26" ht="15.75" customHeight="1">
       <c r="A179" s="27" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B179" s="27" t="s">
         <v>515</v>
@@ -10280,7 +10309,7 @@
         <v>306</v>
       </c>
       <c r="G179" s="27" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H179" s="27" t="s">
         <v>146</v>
@@ -10306,16 +10335,16 @@
     </row>
     <row r="180" spans="1:26" ht="15.75" customHeight="1">
       <c r="A180" s="27" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B180" s="27" t="s">
-        <v>417</v>
+        <v>515</v>
       </c>
       <c r="C180" s="27">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="D180" s="29" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="E180" s="27" t="s">
         <v>170</v>
@@ -10324,7 +10353,7 @@
         <v>306</v>
       </c>
       <c r="G180" s="27" t="s">
-        <v>359</v>
+        <v>533</v>
       </c>
       <c r="H180" s="27" t="s">
         <v>146</v>
@@ -10350,16 +10379,16 @@
     </row>
     <row r="181" spans="1:26" ht="15.75" customHeight="1">
       <c r="A181" s="27" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B181" s="27" t="s">
-        <v>515</v>
+        <v>417</v>
       </c>
       <c r="C181" s="27">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D181" s="29" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="E181" s="27" t="s">
         <v>170</v>
@@ -10368,7 +10397,7 @@
         <v>306</v>
       </c>
       <c r="G181" s="27" t="s">
-        <v>537</v>
+        <v>359</v>
       </c>
       <c r="H181" s="27" t="s">
         <v>146</v>
@@ -10394,16 +10423,16 @@
     </row>
     <row r="182" spans="1:26" ht="15.75" customHeight="1">
       <c r="A182" s="27" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B182" s="27" t="s">
         <v>515</v>
       </c>
       <c r="C182" s="27">
-        <v>1996</v>
+        <v>2003</v>
       </c>
       <c r="D182" s="29" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="E182" s="27" t="s">
         <v>170</v>
@@ -10412,7 +10441,7 @@
         <v>306</v>
       </c>
       <c r="G182" s="27" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="H182" s="27" t="s">
         <v>146</v>
@@ -10438,16 +10467,16 @@
     </row>
     <row r="183" spans="1:26" ht="15.75" customHeight="1">
       <c r="A183" s="27" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B183" s="27" t="s">
-        <v>438</v>
+        <v>515</v>
       </c>
       <c r="C183" s="27">
-        <v>2009</v>
+        <v>1996</v>
       </c>
       <c r="D183" s="29" t="s">
-        <v>439</v>
+        <v>539</v>
       </c>
       <c r="E183" s="27" t="s">
         <v>170</v>
@@ -10456,7 +10485,7 @@
         <v>306</v>
       </c>
       <c r="G183" s="27" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H183" s="27" t="s">
         <v>146</v>
@@ -10482,7 +10511,7 @@
     </row>
     <row r="184" spans="1:26" ht="15.75" customHeight="1">
       <c r="A184" s="27" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B184" s="27" t="s">
         <v>438</v>
@@ -10500,7 +10529,7 @@
         <v>306</v>
       </c>
       <c r="G184" s="27" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="H184" s="27" t="s">
         <v>146</v>
@@ -10526,7 +10555,7 @@
     </row>
     <row r="185" spans="1:26" ht="15.75" customHeight="1">
       <c r="A185" s="27" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B185" s="27" t="s">
         <v>438</v>
@@ -10544,7 +10573,7 @@
         <v>306</v>
       </c>
       <c r="G185" s="27" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H185" s="27" t="s">
         <v>146</v>
@@ -10570,16 +10599,16 @@
     </row>
     <row r="186" spans="1:26" ht="15.75" customHeight="1">
       <c r="A186" s="27" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B186" s="27" t="s">
-        <v>548</v>
+        <v>438</v>
       </c>
       <c r="C186" s="27">
-        <v>2001</v>
+        <v>2009</v>
       </c>
       <c r="D186" s="29" t="s">
-        <v>549</v>
+        <v>439</v>
       </c>
       <c r="E186" s="27" t="s">
         <v>170</v>
@@ -10588,7 +10617,7 @@
         <v>306</v>
       </c>
       <c r="G186" s="27" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="H186" s="27" t="s">
         <v>146</v>
@@ -10614,28 +10643,28 @@
     </row>
     <row r="187" spans="1:26" ht="15.75" customHeight="1">
       <c r="A187" s="27" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B187" s="27" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C187" s="27">
-        <v>2005</v>
-      </c>
-      <c r="D187" s="27" t="s">
-        <v>552</v>
-      </c>
-      <c r="E187" s="32" t="s">
-        <v>553</v>
+        <v>2001</v>
+      </c>
+      <c r="D187" s="29" t="s">
+        <v>549</v>
+      </c>
+      <c r="E187" s="27" t="s">
+        <v>170</v>
       </c>
       <c r="F187" s="27" t="s">
-        <v>103</v>
+        <v>306</v>
       </c>
       <c r="G187" s="27" t="s">
-        <v>554</v>
+        <v>533</v>
       </c>
       <c r="H187" s="27" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="I187" s="3"/>
       <c r="J187" s="3"/>
@@ -10658,25 +10687,25 @@
     </row>
     <row r="188" spans="1:26" ht="15.75" customHeight="1">
       <c r="A188" s="27" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B188" s="27" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="C188" s="27">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="D188" s="27" t="s">
-        <v>556</v>
-      </c>
-      <c r="E188" s="28" t="s">
-        <v>557</v>
+        <v>552</v>
+      </c>
+      <c r="E188" s="32" t="s">
+        <v>553</v>
       </c>
       <c r="F188" s="27" t="s">
         <v>103</v>
       </c>
       <c r="G188" s="27" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="H188" s="27" t="s">
         <v>166</v>
@@ -10702,28 +10731,28 @@
     </row>
     <row r="189" spans="1:26" ht="15.75" customHeight="1">
       <c r="A189" s="27" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B189" s="27" t="s">
-        <v>362</v>
+        <v>548</v>
       </c>
       <c r="C189" s="27">
-        <v>1997</v>
-      </c>
-      <c r="D189" s="29" t="s">
-        <v>560</v>
-      </c>
-      <c r="E189" s="27" t="s">
-        <v>170</v>
+        <v>2003</v>
+      </c>
+      <c r="D189" s="27" t="s">
+        <v>556</v>
+      </c>
+      <c r="E189" s="28" t="s">
+        <v>557</v>
       </c>
       <c r="F189" s="27" t="s">
-        <v>306</v>
+        <v>103</v>
       </c>
       <c r="G189" s="27" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="H189" s="27" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="I189" s="3"/>
       <c r="J189" s="3"/>
@@ -10746,7 +10775,7 @@
     </row>
     <row r="190" spans="1:26" ht="15.75" customHeight="1">
       <c r="A190" s="27" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B190" s="27" t="s">
         <v>362</v>
@@ -10764,7 +10793,7 @@
         <v>306</v>
       </c>
       <c r="G190" s="27" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="H190" s="27" t="s">
         <v>146</v>
@@ -10790,16 +10819,16 @@
     </row>
     <row r="191" spans="1:26" ht="15.75" customHeight="1">
       <c r="A191" s="27" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B191" s="27" t="s">
-        <v>565</v>
+        <v>362</v>
       </c>
       <c r="C191" s="27">
-        <v>2006</v>
+        <v>1997</v>
       </c>
       <c r="D191" s="29" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E191" s="27" t="s">
         <v>170</v>
@@ -10808,7 +10837,7 @@
         <v>306</v>
       </c>
       <c r="G191" s="27" t="s">
-        <v>349</v>
+        <v>563</v>
       </c>
       <c r="H191" s="27" t="s">
         <v>146</v>
@@ -10834,7 +10863,7 @@
     </row>
     <row r="192" spans="1:26" ht="15.75" customHeight="1">
       <c r="A192" s="27" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B192" s="27" t="s">
         <v>565</v>
@@ -10878,7 +10907,7 @@
     </row>
     <row r="193" spans="1:26" ht="15.75" customHeight="1">
       <c r="A193" s="27" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B193" s="27" t="s">
         <v>565</v>
@@ -10922,16 +10951,16 @@
     </row>
     <row r="194" spans="1:26" ht="15.75" customHeight="1">
       <c r="A194" s="27" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B194" s="27" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="C194" s="27">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D194" s="29" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="E194" s="27" t="s">
         <v>170</v>
@@ -10940,7 +10969,7 @@
         <v>306</v>
       </c>
       <c r="G194" s="27" t="s">
-        <v>572</v>
+        <v>349</v>
       </c>
       <c r="H194" s="27" t="s">
         <v>146</v>
@@ -10966,16 +10995,16 @@
     </row>
     <row r="195" spans="1:26" ht="15.75" customHeight="1">
       <c r="A195" s="27" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B195" s="27" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C195" s="27">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="D195" s="29" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="E195" s="27" t="s">
         <v>170</v>
@@ -10984,7 +11013,7 @@
         <v>306</v>
       </c>
       <c r="G195" s="27" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="H195" s="27" t="s">
         <v>146</v>
@@ -11010,7 +11039,7 @@
     </row>
     <row r="196" spans="1:26" ht="15.75" customHeight="1">
       <c r="A196" s="27" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B196" s="27" t="s">
         <v>574</v>
@@ -11018,7 +11047,7 @@
       <c r="C196" s="27">
         <v>2009</v>
       </c>
-      <c r="D196" s="27" t="s">
+      <c r="D196" s="29" t="s">
         <v>575</v>
       </c>
       <c r="E196" s="27" t="s">
@@ -11028,7 +11057,7 @@
         <v>306</v>
       </c>
       <c r="G196" s="27" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="H196" s="27" t="s">
         <v>146</v>
@@ -11054,16 +11083,16 @@
     </row>
     <row r="197" spans="1:26" ht="15.75" customHeight="1">
       <c r="A197" s="27" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B197" s="27" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="C197" s="27">
-        <v>2000</v>
-      </c>
-      <c r="D197" s="29" t="s">
-        <v>581</v>
+        <v>2009</v>
+      </c>
+      <c r="D197" s="27" t="s">
+        <v>575</v>
       </c>
       <c r="E197" s="27" t="s">
         <v>170</v>
@@ -11072,7 +11101,7 @@
         <v>306</v>
       </c>
       <c r="G197" s="27" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="H197" s="27" t="s">
         <v>146</v>
@@ -11098,16 +11127,16 @@
     </row>
     <row r="198" spans="1:26" ht="15.75" customHeight="1">
       <c r="A198" s="27" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B198" s="27" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="C198" s="27">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="D198" s="29" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E198" s="27" t="s">
         <v>170</v>
@@ -11116,7 +11145,7 @@
         <v>306</v>
       </c>
       <c r="G198" s="27" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H198" s="27" t="s">
         <v>146</v>
@@ -11142,16 +11171,16 @@
     </row>
     <row r="199" spans="1:26" ht="15.75" customHeight="1">
       <c r="A199" s="27" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B199" s="27" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="C199" s="27">
         <v>2006</v>
       </c>
       <c r="D199" s="29" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="E199" s="27" t="s">
         <v>170</v>
@@ -11160,7 +11189,7 @@
         <v>306</v>
       </c>
       <c r="G199" s="27" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="H199" s="27" t="s">
         <v>146</v>
@@ -11186,7 +11215,7 @@
     </row>
     <row r="200" spans="1:26" ht="15.75" customHeight="1">
       <c r="A200" s="27" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B200" s="27" t="s">
         <v>587</v>
@@ -11204,7 +11233,7 @@
         <v>306</v>
       </c>
       <c r="G200" s="27" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="H200" s="27" t="s">
         <v>146</v>
@@ -11230,16 +11259,16 @@
     </row>
     <row r="201" spans="1:26" ht="15.75" customHeight="1">
       <c r="A201" s="27" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B201" s="27" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="C201" s="27">
-        <v>1999</v>
+        <v>2006</v>
       </c>
       <c r="D201" s="29" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="E201" s="27" t="s">
         <v>170</v>
@@ -11248,7 +11277,7 @@
         <v>306</v>
       </c>
       <c r="G201" s="27" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="H201" s="27" t="s">
         <v>146</v>
@@ -11274,7 +11303,7 @@
     </row>
     <row r="202" spans="1:26" ht="15.75" customHeight="1">
       <c r="A202" s="27" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B202" s="27" t="s">
         <v>593</v>
@@ -11292,7 +11321,7 @@
         <v>306</v>
       </c>
       <c r="G202" s="27" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="H202" s="27" t="s">
         <v>146</v>
@@ -11318,7 +11347,7 @@
     </row>
     <row r="203" spans="1:26" ht="15.75" customHeight="1">
       <c r="A203" s="27" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B203" s="27" t="s">
         <v>593</v>
@@ -11336,7 +11365,7 @@
         <v>306</v>
       </c>
       <c r="G203" s="27" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="H203" s="27" t="s">
         <v>146</v>
@@ -11362,7 +11391,7 @@
     </row>
     <row r="204" spans="1:26" ht="15.75" customHeight="1">
       <c r="A204" s="27" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B204" s="27" t="s">
         <v>593</v>
@@ -11380,7 +11409,7 @@
         <v>306</v>
       </c>
       <c r="G204" s="27" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="H204" s="27" t="s">
         <v>146</v>
@@ -11406,7 +11435,7 @@
     </row>
     <row r="205" spans="1:26" ht="15.75" customHeight="1">
       <c r="A205" s="27" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B205" s="27" t="s">
         <v>593</v>
@@ -11424,7 +11453,7 @@
         <v>306</v>
       </c>
       <c r="G205" s="27" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="H205" s="27" t="s">
         <v>146</v>
@@ -11450,7 +11479,7 @@
     </row>
     <row r="206" spans="1:26" ht="15.75" customHeight="1">
       <c r="A206" s="27" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B206" s="27" t="s">
         <v>593</v>
@@ -11468,7 +11497,7 @@
         <v>306</v>
       </c>
       <c r="G206" s="27" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="H206" s="27" t="s">
         <v>146</v>
@@ -11494,7 +11523,7 @@
     </row>
     <row r="207" spans="1:26" ht="15.75" customHeight="1">
       <c r="A207" s="27" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B207" s="27" t="s">
         <v>593</v>
@@ -11512,7 +11541,7 @@
         <v>306</v>
       </c>
       <c r="G207" s="27" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="H207" s="27" t="s">
         <v>146</v>
@@ -11538,16 +11567,16 @@
     </row>
     <row r="208" spans="1:26" ht="15.75" customHeight="1">
       <c r="A208" s="27" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B208" s="27" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="C208" s="27">
-        <v>2004</v>
+        <v>1999</v>
       </c>
       <c r="D208" s="29" t="s">
-        <v>610</v>
+        <v>594</v>
       </c>
       <c r="E208" s="27" t="s">
         <v>170</v>
@@ -11556,7 +11585,7 @@
         <v>306</v>
       </c>
       <c r="G208" s="27" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="H208" s="27" t="s">
         <v>146</v>
@@ -11582,16 +11611,16 @@
     </row>
     <row r="209" spans="1:26" ht="15.75" customHeight="1">
       <c r="A209" s="27" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B209" s="27" t="s">
-        <v>593</v>
+        <v>609</v>
       </c>
       <c r="C209" s="27">
-        <v>1999</v>
+        <v>2004</v>
       </c>
       <c r="D209" s="29" t="s">
-        <v>594</v>
+        <v>610</v>
       </c>
       <c r="E209" s="27" t="s">
         <v>170</v>
@@ -11600,7 +11629,7 @@
         <v>306</v>
       </c>
       <c r="G209" s="27" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H209" s="27" t="s">
         <v>146</v>
@@ -11625,28 +11654,28 @@
       <c r="Z209" s="3"/>
     </row>
     <row r="210" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A210" s="28" t="s">
-        <v>614</v>
-      </c>
-      <c r="B210" s="28" t="s">
-        <v>615</v>
-      </c>
-      <c r="C210" s="28">
-        <v>1997</v>
+      <c r="A210" s="27" t="s">
+        <v>612</v>
+      </c>
+      <c r="B210" s="27" t="s">
+        <v>593</v>
+      </c>
+      <c r="C210" s="27">
+        <v>1999</v>
       </c>
       <c r="D210" s="29" t="s">
-        <v>616</v>
-      </c>
-      <c r="E210" s="28" t="s">
+        <v>594</v>
+      </c>
+      <c r="E210" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="F210" s="28" t="s">
+      <c r="F210" s="27" t="s">
         <v>306</v>
       </c>
-      <c r="G210" s="28" t="s">
-        <v>617</v>
-      </c>
-      <c r="H210" s="28" t="s">
+      <c r="G210" s="27" t="s">
+        <v>613</v>
+      </c>
+      <c r="H210" s="27" t="s">
         <v>146</v>
       </c>
       <c r="I210" s="3"/>
@@ -11670,7 +11699,7 @@
     </row>
     <row r="211" spans="1:26" ht="15.75" customHeight="1">
       <c r="A211" s="28" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B211" s="28" t="s">
         <v>615</v>
@@ -11688,7 +11717,7 @@
         <v>306</v>
       </c>
       <c r="G211" s="28" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H211" s="28" t="s">
         <v>146</v>
@@ -11714,16 +11743,16 @@
     </row>
     <row r="212" spans="1:26" ht="15.75" customHeight="1">
       <c r="A212" s="28" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B212" s="28" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="C212" s="28">
-        <v>2002</v>
+        <v>1997</v>
       </c>
       <c r="D212" s="29" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="E212" s="28" t="s">
         <v>170</v>
@@ -11731,8 +11760,8 @@
       <c r="F212" s="28" t="s">
         <v>306</v>
       </c>
-      <c r="G212" s="27" t="s">
-        <v>623</v>
+      <c r="G212" s="28" t="s">
+        <v>619</v>
       </c>
       <c r="H212" s="28" t="s">
         <v>146</v>
@@ -11758,16 +11787,16 @@
     </row>
     <row r="213" spans="1:26" ht="15.75" customHeight="1">
       <c r="A213" s="28" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B213" s="28" t="s">
-        <v>460</v>
+        <v>621</v>
       </c>
       <c r="C213" s="28">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="D213" s="29" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="E213" s="28" t="s">
         <v>170</v>
@@ -11775,8 +11804,8 @@
       <c r="F213" s="28" t="s">
         <v>306</v>
       </c>
-      <c r="G213" s="28" t="s">
-        <v>626</v>
+      <c r="G213" s="27" t="s">
+        <v>623</v>
       </c>
       <c r="H213" s="28" t="s">
         <v>146</v>
@@ -11802,16 +11831,16 @@
     </row>
     <row r="214" spans="1:26" ht="15.75" customHeight="1">
       <c r="A214" s="28" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B214" s="28" t="s">
-        <v>628</v>
+        <v>460</v>
       </c>
       <c r="C214" s="28">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="D214" s="29" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="E214" s="28" t="s">
         <v>170</v>
@@ -11820,7 +11849,7 @@
         <v>306</v>
       </c>
       <c r="G214" s="28" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
       <c r="H214" s="28" t="s">
         <v>146</v>
@@ -11845,28 +11874,28 @@
       <c r="Z214" s="3"/>
     </row>
     <row r="215" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A215" s="27" t="s">
-        <v>630</v>
-      </c>
-      <c r="B215" s="27" t="s">
-        <v>631</v>
-      </c>
-      <c r="C215" s="27">
-        <v>2009</v>
+      <c r="A215" s="28" t="s">
+        <v>627</v>
+      </c>
+      <c r="B215" s="28" t="s">
+        <v>628</v>
+      </c>
+      <c r="C215" s="28">
+        <v>2007</v>
       </c>
       <c r="D215" s="29" t="s">
-        <v>632</v>
-      </c>
-      <c r="E215" s="27" t="s">
+        <v>629</v>
+      </c>
+      <c r="E215" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="F215" s="27" t="s">
+      <c r="F215" s="28" t="s">
         <v>306</v>
       </c>
-      <c r="G215" s="27" t="s">
-        <v>633</v>
-      </c>
-      <c r="H215" s="27" t="s">
+      <c r="G215" s="28" t="s">
+        <v>617</v>
+      </c>
+      <c r="H215" s="28" t="s">
         <v>146</v>
       </c>
       <c r="I215" s="3"/>
@@ -11890,16 +11919,16 @@
     </row>
     <row r="216" spans="1:26" ht="15.75" customHeight="1">
       <c r="A216" s="27" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B216" s="27" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="C216" s="27">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="D216" s="29" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="E216" s="27" t="s">
         <v>170</v>
@@ -11908,7 +11937,7 @@
         <v>306</v>
       </c>
       <c r="G216" s="27" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="H216" s="27" t="s">
         <v>146</v>
@@ -11934,7 +11963,7 @@
     </row>
     <row r="217" spans="1:26" ht="15.75" customHeight="1">
       <c r="A217" s="27" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B217" s="27" t="s">
         <v>635</v>
@@ -11952,7 +11981,7 @@
         <v>306</v>
       </c>
       <c r="G217" s="27" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="H217" s="27" t="s">
         <v>146</v>
@@ -11978,16 +12007,16 @@
     </row>
     <row r="218" spans="1:26" ht="15.75" customHeight="1">
       <c r="A218" s="27" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B218" s="27" t="s">
-        <v>507</v>
+        <v>635</v>
       </c>
       <c r="C218" s="27">
-        <v>2002</v>
+        <v>2011</v>
       </c>
       <c r="D218" s="29" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="E218" s="27" t="s">
         <v>170</v>
@@ -11996,7 +12025,7 @@
         <v>306</v>
       </c>
       <c r="G218" s="27" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H218" s="27" t="s">
         <v>146</v>
@@ -12022,16 +12051,16 @@
     </row>
     <row r="219" spans="1:26" ht="15.75" customHeight="1">
       <c r="A219" s="27" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B219" s="27" t="s">
-        <v>644</v>
+        <v>507</v>
       </c>
       <c r="C219" s="27">
-        <v>2008</v>
+        <v>2002</v>
       </c>
       <c r="D219" s="29" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="E219" s="27" t="s">
         <v>170</v>
@@ -12040,7 +12069,7 @@
         <v>306</v>
       </c>
       <c r="G219" s="27" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="H219" s="27" t="s">
         <v>146</v>
@@ -12066,7 +12095,7 @@
     </row>
     <row r="220" spans="1:26" ht="15.75" customHeight="1">
       <c r="A220" s="27" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B220" s="27" t="s">
         <v>644</v>
@@ -12084,7 +12113,7 @@
         <v>306</v>
       </c>
       <c r="G220" s="27" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="H220" s="27" t="s">
         <v>146</v>
@@ -12110,7 +12139,7 @@
     </row>
     <row r="221" spans="1:26" ht="15.75" customHeight="1">
       <c r="A221" s="27" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B221" s="27" t="s">
         <v>644</v>
@@ -12128,7 +12157,7 @@
         <v>306</v>
       </c>
       <c r="G221" s="27" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="H221" s="27" t="s">
         <v>146</v>
@@ -12154,16 +12183,16 @@
     </row>
     <row r="222" spans="1:26" ht="15.75" customHeight="1">
       <c r="A222" s="27" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B222" s="27" t="s">
-        <v>507</v>
+        <v>644</v>
       </c>
       <c r="C222" s="27">
-        <v>2001</v>
+        <v>2008</v>
       </c>
       <c r="D222" s="29" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="E222" s="27" t="s">
         <v>170</v>
@@ -12172,7 +12201,7 @@
         <v>306</v>
       </c>
       <c r="G222" s="27" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="H222" s="27" t="s">
         <v>146</v>
@@ -12198,16 +12227,16 @@
     </row>
     <row r="223" spans="1:26" ht="15.75" customHeight="1">
       <c r="A223" s="27" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B223" s="27" t="s">
-        <v>655</v>
+        <v>507</v>
       </c>
       <c r="C223" s="27">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="D223" s="29" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E223" s="27" t="s">
         <v>170</v>
@@ -12216,7 +12245,7 @@
         <v>306</v>
       </c>
       <c r="G223" s="27" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="H223" s="27" t="s">
         <v>146</v>
@@ -12242,16 +12271,16 @@
     </row>
     <row r="224" spans="1:26" ht="15.75" customHeight="1">
       <c r="A224" s="27" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="B224" s="27" t="s">
-        <v>507</v>
+        <v>655</v>
       </c>
       <c r="C224" s="27">
-        <v>2001</v>
+        <v>2006</v>
       </c>
       <c r="D224" s="29" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="E224" s="27" t="s">
         <v>170</v>
@@ -12260,7 +12289,7 @@
         <v>306</v>
       </c>
       <c r="G224" s="27" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H224" s="27" t="s">
         <v>146</v>
@@ -12286,16 +12315,16 @@
     </row>
     <row r="225" spans="1:26" ht="15.75" customHeight="1">
       <c r="A225" s="27" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B225" s="27" t="s">
-        <v>661</v>
+        <v>507</v>
       </c>
       <c r="C225" s="27">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="D225" s="29" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="E225" s="27" t="s">
         <v>170</v>
@@ -12304,7 +12333,7 @@
         <v>306</v>
       </c>
       <c r="G225" s="27" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="H225" s="27" t="s">
         <v>146</v>
@@ -12330,28 +12359,28 @@
     </row>
     <row r="226" spans="1:26" ht="15.75" customHeight="1">
       <c r="A226" s="27" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="B226" s="27" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="C226" s="27">
-        <v>2013</v>
-      </c>
-      <c r="D226" s="27" t="s">
-        <v>666</v>
-      </c>
-      <c r="E226" s="28" t="s">
-        <v>667</v>
+        <v>2004</v>
+      </c>
+      <c r="D226" s="29" t="s">
+        <v>662</v>
+      </c>
+      <c r="E226" s="27" t="s">
+        <v>170</v>
       </c>
       <c r="F226" s="27" t="s">
-        <v>103</v>
+        <v>306</v>
       </c>
       <c r="G226" s="27" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="H226" s="27" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="I226" s="3"/>
       <c r="J226" s="3"/>
@@ -12374,28 +12403,28 @@
     </row>
     <row r="227" spans="1:26" ht="15.75" customHeight="1">
       <c r="A227" s="27" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="B227" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C227" s="27" t="s">
-        <v>49</v>
+        <v>665</v>
+      </c>
+      <c r="C227" s="27">
+        <v>2013</v>
       </c>
       <c r="D227" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E227" s="27" t="s">
-        <v>49</v>
+        <v>666</v>
+      </c>
+      <c r="E227" s="28" t="s">
+        <v>667</v>
       </c>
       <c r="F227" s="27" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="G227" s="27" t="s">
-        <v>49</v>
+        <v>668</v>
       </c>
       <c r="H227" s="27" t="s">
-        <v>49</v>
+        <v>166</v>
       </c>
       <c r="I227" s="3"/>
       <c r="J227" s="3"/>
@@ -12418,7 +12447,7 @@
     </row>
     <row r="228" spans="1:26" ht="15.75" customHeight="1">
       <c r="A228" s="27" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B228" s="27" t="s">
         <v>49</v>
@@ -12462,7 +12491,7 @@
     </row>
     <row r="229" spans="1:26" ht="15.75" customHeight="1">
       <c r="A229" s="27" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B229" s="27" t="s">
         <v>49</v>
@@ -12506,7 +12535,7 @@
     </row>
     <row r="230" spans="1:26" ht="15.75" customHeight="1">
       <c r="A230" s="27" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B230" s="27" t="s">
         <v>49</v>
@@ -12550,7 +12579,7 @@
     </row>
     <row r="231" spans="1:26" ht="15.75" customHeight="1">
       <c r="A231" s="27" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B231" s="27" t="s">
         <v>49</v>
@@ -12594,7 +12623,7 @@
     </row>
     <row r="232" spans="1:26" ht="15.75" customHeight="1">
       <c r="A232" s="27" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B232" s="27" t="s">
         <v>49</v>
@@ -12638,7 +12667,7 @@
     </row>
     <row r="233" spans="1:26" ht="15.75" customHeight="1">
       <c r="A233" s="27" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B233" s="27" t="s">
         <v>49</v>
@@ -12682,7 +12711,7 @@
     </row>
     <row r="234" spans="1:26" ht="15.75" customHeight="1">
       <c r="A234" s="27" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B234" s="27" t="s">
         <v>49</v>
@@ -12726,7 +12755,7 @@
     </row>
     <row r="235" spans="1:26" ht="15.75" customHeight="1">
       <c r="A235" s="27" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B235" s="27" t="s">
         <v>49</v>
@@ -12770,7 +12799,7 @@
     </row>
     <row r="236" spans="1:26" ht="15.75" customHeight="1">
       <c r="A236" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B236" s="27" t="s">
         <v>49</v>
@@ -12813,14 +12842,30 @@
       <c r="Z236" s="3"/>
     </row>
     <row r="237" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A237" s="3"/>
-      <c r="B237" s="3"/>
-      <c r="C237" s="3"/>
-      <c r="D237" s="3"/>
-      <c r="E237" s="3"/>
-      <c r="F237" s="3"/>
-      <c r="G237" s="3"/>
-      <c r="H237" s="3"/>
+      <c r="A237" s="27" t="s">
+        <v>678</v>
+      </c>
+      <c r="B237" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C237" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D237" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E237" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="F237" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="G237" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H237" s="27" t="s">
+        <v>49</v>
+      </c>
       <c r="I237" s="3"/>
       <c r="J237" s="3"/>
       <c r="K237" s="3"/>
@@ -34204,61 +34249,89 @@
       <c r="Y1000" s="3"/>
       <c r="Z1000" s="3"/>
     </row>
+    <row r="1001" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A1001" s="3"/>
+      <c r="B1001" s="3"/>
+      <c r="C1001" s="3"/>
+      <c r="D1001" s="3"/>
+      <c r="E1001" s="3"/>
+      <c r="F1001" s="3"/>
+      <c r="G1001" s="3"/>
+      <c r="H1001" s="3"/>
+      <c r="I1001" s="3"/>
+      <c r="J1001" s="3"/>
+      <c r="K1001" s="3"/>
+      <c r="L1001" s="3"/>
+      <c r="M1001" s="3"/>
+      <c r="N1001" s="3"/>
+      <c r="O1001" s="3"/>
+      <c r="P1001" s="3"/>
+      <c r="Q1001" s="3"/>
+      <c r="R1001" s="3"/>
+      <c r="S1001" s="3"/>
+      <c r="T1001" s="3"/>
+      <c r="U1001" s="3"/>
+      <c r="V1001" s="3"/>
+      <c r="W1001" s="3"/>
+      <c r="X1001" s="3"/>
+      <c r="Y1001" s="3"/>
+      <c r="Z1001" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="G51:G55"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E53:E55"/>
-    <mergeCell ref="F3:F27"/>
-    <mergeCell ref="E3:E27"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="G3:G27"/>
-    <mergeCell ref="H3:H27"/>
-    <mergeCell ref="C3:C27"/>
-    <mergeCell ref="B3:B27"/>
-    <mergeCell ref="D3:D27"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="G82:G83"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="D78:D81"/>
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="F78:F81"/>
-    <mergeCell ref="G78:G81"/>
+    <mergeCell ref="E79:E82"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F79:F82"/>
+    <mergeCell ref="G79:G82"/>
+    <mergeCell ref="H4:H28"/>
+    <mergeCell ref="C4:C28"/>
+    <mergeCell ref="B4:B28"/>
+    <mergeCell ref="D4:D28"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="C79:C82"/>
+    <mergeCell ref="D79:D82"/>
+    <mergeCell ref="F4:F28"/>
+    <mergeCell ref="E4:E28"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="G4:G28"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="G52:G56"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="E49:E51"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E34" r:id="rId1" xr:uid="{1676492B-873D-D948-A472-82C50DA81C10}"/>
-    <hyperlink ref="E44" r:id="rId2" xr:uid="{EDF4F698-AB68-1D4D-B64D-386899659F3A}"/>
+    <hyperlink ref="E35" r:id="rId1" xr:uid="{1676492B-873D-D948-A472-82C50DA81C10}"/>
+    <hyperlink ref="E45" r:id="rId2" xr:uid="{EDF4F698-AB68-1D4D-B64D-386899659F3A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
